--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2146024.857572652</v>
+        <v>2143222.713690122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767346</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9416177.787856523</v>
+        <v>9416177.787856525</v>
       </c>
     </row>
     <row r="11">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>10.67647943109962</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>13.91167781799599</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.25340582209087</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>13.91167781799599</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>12.25340582209087</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.13715520272814</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -938,7 +938,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.79500702712463</v>
+        <v>32.68636186295921</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="T6" t="n">
-        <v>49.79500702712463</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="U6" t="n">
-        <v>16.44799022605969</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>92.66494928910245</v>
       </c>
       <c r="H8" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.05042947603804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>24.91528667358025</v>
@@ -1178,10 +1178,10 @@
         <v>23.65357118422313</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.05042947603805</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4292482680511</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516765</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>14.34273879062262</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.56947841277967</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>75.37201941954153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>340.150579246199</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>373.1242828674709</v>
+        <v>410.4340896941583</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.77734445219969</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H12" t="n">
-        <v>87.07705110139776</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I12" t="n">
-        <v>9.834193755438292</v>
+        <v>9.834193755438221</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.297251518396</v>
+        <v>123.2972515183959</v>
       </c>
       <c r="T12" t="n">
         <v>189.6649270185474</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>136.0766817144005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>72.6832247095937</v>
+        <v>79.09695505775036</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9570411375937</v>
       </c>
       <c r="T13" t="n">
         <v>218.6143469959873</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>221.3756396498885</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>410.4340896941583</v>
       </c>
       <c r="H14" t="n">
-        <v>289.613762619189</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.7833437278056</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>128.1031478552318</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H15" t="n">
-        <v>87.07705110139776</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I15" t="n">
-        <v>9.834193755438292</v>
+        <v>9.834193755438221</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>123.297251518396</v>
+        <v>123.2972515183959</v>
       </c>
       <c r="T15" t="n">
         <v>189.6649270185474</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.09695505775044</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.9570411375937</v>
       </c>
       <c r="T16" t="n">
-        <v>174.859048528449</v>
+        <v>218.6143469959873</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1999071126743</v>
+        <v>84.95496232851612</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1853,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F17" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G17" t="n">
         <v>380.8046878459568</v>
       </c>
       <c r="H17" t="n">
-        <v>259.9843607709875</v>
+        <v>124.1696628418854</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>68.44635551753608</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>172.1539418796042</v>
       </c>
       <c r="U17" t="n">
-        <v>221.3267592339569</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>181.5816968560115</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W17" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X17" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y17" t="n">
         <v>356.6085368078521</v>
@@ -1938,10 +1938,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H18" t="n">
-        <v>87.07705110139776</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I18" t="n">
-        <v>9.834193755438292</v>
+        <v>9.834193755438221</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>123.297251518396</v>
+        <v>123.2972515183959</v>
       </c>
       <c r="T18" t="n">
         <v>189.6649270185474</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C19" t="n">
-        <v>137.6174192504263</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.12201436200588</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F19" t="n">
         <v>115.7916461747298</v>
@@ -2020,7 +2020,7 @@
         <v>113.1808449171451</v>
       </c>
       <c r="I19" t="n">
-        <v>60.14500932154803</v>
+        <v>60.145009321548</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.46755320954895</v>
+        <v>49.46755320954892</v>
       </c>
       <c r="S19" t="n">
         <v>156.3276392893922</v>
       </c>
       <c r="T19" t="n">
-        <v>188.9849451477858</v>
+        <v>188.9849451477859</v>
       </c>
       <c r="U19" t="n">
-        <v>256.5705052644728</v>
+        <v>256.5705052644729</v>
       </c>
       <c r="V19" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W19" t="n">
-        <v>256.8935964883895</v>
+        <v>198.2110500520275</v>
       </c>
       <c r="X19" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F20" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G20" t="n">
-        <v>380.8046878459568</v>
+        <v>264.26352808004</v>
       </c>
       <c r="H20" t="n">
         <v>259.9843607709875</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>104.7855994680347</v>
+        <v>221.3267592339569</v>
       </c>
       <c r="V20" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W20" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X20" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y20" t="n">
         <v>356.6085368078521</v>
@@ -2175,10 +2175,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H21" t="n">
-        <v>87.07705110139776</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I21" t="n">
-        <v>9.834193755438292</v>
+        <v>9.834193755438207</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>123.297251518396</v>
+        <v>123.2972515183959</v>
       </c>
       <c r="T21" t="n">
         <v>189.6649270185474</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C22" t="n">
-        <v>137.6174192504263</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D22" t="n">
-        <v>58.12201436200516</v>
+        <v>58.12201436200753</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>113.1808449171451</v>
       </c>
       <c r="I22" t="n">
-        <v>60.14500932154803</v>
+        <v>60.145009321548</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.46755320954895</v>
+        <v>49.46755320954891</v>
       </c>
       <c r="S22" t="n">
         <v>156.3276392893922</v>
       </c>
       <c r="T22" t="n">
-        <v>188.9849451477858</v>
+        <v>188.9849451477859</v>
       </c>
       <c r="U22" t="n">
-        <v>256.5705052644728</v>
+        <v>256.5705052644729</v>
       </c>
       <c r="V22" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W22" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X22" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F23" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G23" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H23" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.78359933983042</v>
+        <v>61.78359933983049</v>
       </c>
       <c r="T23" t="n">
         <v>170.8740202046549</v>
@@ -2375,13 +2375,13 @@
         <v>221.3033683181383</v>
       </c>
       <c r="V23" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W23" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X23" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y23" t="n">
         <v>356.6085368078521</v>
@@ -2412,10 +2412,10 @@
         <v>134.5821203844385</v>
       </c>
       <c r="H24" t="n">
-        <v>85.5661648204601</v>
+        <v>85.56616482046012</v>
       </c>
       <c r="I24" t="n">
-        <v>4.447973362449872</v>
+        <v>4.4479733624499</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C25" t="n">
-        <v>137.6174192504263</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D25" t="n">
         <v>118.9860711700109</v>
       </c>
       <c r="E25" t="n">
-        <v>80.56210617346876</v>
+        <v>80.56210617346647</v>
       </c>
       <c r="F25" t="n">
         <v>115.7916461747298</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H25" t="n">
-        <v>112.0147622279933</v>
+        <v>112.0147622279934</v>
       </c>
       <c r="I25" t="n">
-        <v>56.20083597214717</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.57037020285709</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S25" t="n">
         <v>154.0419741410242</v>
@@ -2530,19 +2530,19 @@
         <v>188.4245577613837</v>
       </c>
       <c r="U25" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V25" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W25" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X25" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2564,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F26" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G26" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H26" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.78359933983042</v>
+        <v>61.78359933982957</v>
       </c>
       <c r="T26" t="n">
         <v>170.8740202046549</v>
@@ -2612,13 +2612,13 @@
         <v>221.3033683181383</v>
       </c>
       <c r="V26" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W26" t="n">
-        <v>319.6115668692122</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X26" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y26" t="n">
         <v>356.6085368078521</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C28" t="n">
-        <v>137.6174192504263</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D28" t="n">
         <v>118.9860711700109</v>
       </c>
       <c r="E28" t="n">
-        <v>116.8045607983677</v>
+        <v>80.562106173467</v>
       </c>
       <c r="F28" t="n">
         <v>115.7916461747298</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H28" t="n">
-        <v>75.77230760309337</v>
+        <v>112.0147622279934</v>
       </c>
       <c r="I28" t="n">
-        <v>56.20083597214717</v>
+        <v>56.2008359721472</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.57037020285709</v>
+        <v>43.57037020285715</v>
       </c>
       <c r="S28" t="n">
         <v>154.0419741410242</v>
@@ -2767,19 +2767,19 @@
         <v>188.4245577613837</v>
       </c>
       <c r="U28" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V28" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W28" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X28" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y28" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F29" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G29" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H29" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.78359933983042</v>
+        <v>61.7835993398305</v>
       </c>
       <c r="T29" t="n">
-        <v>170.8740202046549</v>
+        <v>170.874020204655</v>
       </c>
       <c r="U29" t="n">
-        <v>221.3033683181383</v>
+        <v>221.3033683181384</v>
       </c>
       <c r="V29" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W29" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X29" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y29" t="n">
         <v>356.6085368078521</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C31" t="n">
-        <v>101.374964625527</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D31" t="n">
         <v>118.9860711700109</v>
       </c>
       <c r="E31" t="n">
-        <v>116.8045607983677</v>
+        <v>116.8045607983678</v>
       </c>
       <c r="F31" t="n">
-        <v>115.7916461747298</v>
+        <v>79.54919154982822</v>
       </c>
       <c r="G31" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H31" t="n">
-        <v>112.0147622279933</v>
+        <v>112.0147622279934</v>
       </c>
       <c r="I31" t="n">
-        <v>56.20083597214717</v>
+        <v>56.20083597214725</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.57037020285709</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S31" t="n">
-        <v>154.0419741410242</v>
+        <v>154.0419741410243</v>
       </c>
       <c r="T31" t="n">
         <v>188.4245577613837</v>
       </c>
       <c r="U31" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V31" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W31" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X31" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>150.2025783337359</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3749646255253</v>
+        <v>101.3749646255257</v>
       </c>
       <c r="D34" t="n">
         <v>118.9860711700109</v>
@@ -3275,13 +3275,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F35" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G35" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H35" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>61.78359933983043</v>
+        <v>61.7835993398305</v>
       </c>
       <c r="T35" t="n">
-        <v>170.8740202046549</v>
+        <v>170.874020204655</v>
       </c>
       <c r="U35" t="n">
-        <v>221.3033683181383</v>
+        <v>221.3033683181384</v>
       </c>
       <c r="V35" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W35" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X35" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y35" t="n">
         <v>356.6085368078521</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C37" t="n">
         <v>137.6174192504264</v>
@@ -3430,19 +3430,19 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E37" t="n">
-        <v>116.8045607983677</v>
+        <v>116.8045607983678</v>
       </c>
       <c r="F37" t="n">
         <v>115.7916461747298</v>
       </c>
       <c r="G37" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H37" t="n">
-        <v>112.0147622279933</v>
+        <v>112.0147622279934</v>
       </c>
       <c r="I37" t="n">
-        <v>19.95838134724718</v>
+        <v>56.20083597214725</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.57037020285711</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S37" t="n">
-        <v>154.0419741410242</v>
+        <v>117.7995195161235</v>
       </c>
       <c r="T37" t="n">
         <v>188.4245577613837</v>
       </c>
       <c r="U37" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V37" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W37" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X37" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F38" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G38" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H38" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.78359933982893</v>
+        <v>61.78359933983073</v>
       </c>
       <c r="T38" t="n">
         <v>170.8740202046549</v>
@@ -3560,13 +3560,13 @@
         <v>221.3033683181383</v>
       </c>
       <c r="V38" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W38" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X38" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y38" t="n">
         <v>356.6085368078521</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C40" t="n">
         <v>137.6174192504264</v>
@@ -3667,19 +3667,19 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E40" t="n">
-        <v>80.56210617346741</v>
+        <v>80.56210617346633</v>
       </c>
       <c r="F40" t="n">
         <v>115.7916461747298</v>
       </c>
       <c r="G40" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H40" t="n">
         <v>112.0147622279934</v>
       </c>
       <c r="I40" t="n">
-        <v>56.20083597214717</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.57037020285712</v>
+        <v>43.57037020285715</v>
       </c>
       <c r="S40" t="n">
         <v>154.0419741410242</v>
@@ -3715,19 +3715,19 @@
         <v>188.4245577613837</v>
       </c>
       <c r="U40" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V40" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W40" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X40" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>353.1044398152791</v>
+        <v>353.1044398152798</v>
       </c>
       <c r="C41" t="n">
         <v>335.6434899228061</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.7835993398305</v>
+        <v>61.78359933983047</v>
       </c>
       <c r="T41" t="n">
-        <v>170.874020204655</v>
+        <v>170.8740202046549</v>
       </c>
       <c r="U41" t="n">
-        <v>221.3033683181384</v>
+        <v>221.3033683181383</v>
       </c>
       <c r="V41" t="n">
         <v>298.1228566219335</v>
@@ -3904,10 +3904,10 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E43" t="n">
-        <v>116.8045607983678</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F43" t="n">
-        <v>79.54919154982822</v>
+        <v>79.54919154982875</v>
       </c>
       <c r="G43" t="n">
         <v>136.0465152122646</v>
@@ -3916,7 +3916,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I43" t="n">
-        <v>56.20083597214725</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>43.57037020285718</v>
+        <v>43.57037020285715</v>
       </c>
       <c r="S43" t="n">
-        <v>154.0419741410243</v>
+        <v>154.0419741410242</v>
       </c>
       <c r="T43" t="n">
         <v>188.4245577613837</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.7835993398305</v>
+        <v>61.78359933983047</v>
       </c>
       <c r="T44" t="n">
-        <v>170.874020204655</v>
+        <v>170.8740202046549</v>
       </c>
       <c r="U44" t="n">
-        <v>221.3033683181384</v>
+        <v>221.3033683181383</v>
       </c>
       <c r="V44" t="n">
         <v>298.1228566219335</v>
@@ -4135,13 +4135,13 @@
         <v>150.2025783337359</v>
       </c>
       <c r="C46" t="n">
-        <v>137.6174192504264</v>
+        <v>101.3749646255259</v>
       </c>
       <c r="D46" t="n">
         <v>118.9860711700109</v>
       </c>
       <c r="E46" t="n">
-        <v>116.8045607983678</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F46" t="n">
         <v>115.7916461747298</v>
@@ -4153,7 +4153,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I46" t="n">
-        <v>19.95838134724597</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.57037020285718</v>
+        <v>43.57037020285715</v>
       </c>
       <c r="S46" t="n">
-        <v>154.0419741410243</v>
+        <v>154.0419741410242</v>
       </c>
       <c r="T46" t="n">
         <v>188.4245577613837</v>
@@ -4331,7 +4331,7 @@
         <v>34.64901070662293</v>
       </c>
       <c r="K2" t="n">
-        <v>23.86468804894655</v>
+        <v>34.64901070662293</v>
       </c>
       <c r="L2" t="n">
         <v>23.86468804894655</v>
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="C3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="D3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="E3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="F3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="G3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="H3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="I3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="J3" t="n">
-        <v>13.49011182351126</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="K3" t="n">
         <v>1.112934225439679</v>
       </c>
       <c r="L3" t="n">
-        <v>6.259620890165159</v>
+        <v>14.88549526525571</v>
       </c>
       <c r="M3" t="n">
-        <v>20.03218192998119</v>
+        <v>28.65805630507175</v>
       </c>
       <c r="N3" t="n">
-        <v>33.80474296979722</v>
+        <v>42.43061734488778</v>
       </c>
       <c r="O3" t="n">
         <v>47.57730400961326</v>
@@ -4434,25 +4434,25 @@
         <v>27.54231163966883</v>
       </c>
       <c r="S3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="T3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="U3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="V3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="W3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="X3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.54231163966883</v>
+        <v>15.16513404159725</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="C4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="D4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="E4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="F4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="G4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="H4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="I4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="J4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="K4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="L4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="M4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="N4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="O4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="P4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="R4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="S4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="T4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="U4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="V4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="W4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="X4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.112934225439679</v>
+        <v>55.64671127198397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="C5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="D5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="E5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="F5" t="n">
-        <v>81.2472951715674</v>
+        <v>71.6016318784047</v>
       </c>
       <c r="G5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>121.8996187744902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="H6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4653,10 +4653,10 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4668,28 +4668,28 @@
         <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="T6" t="n">
-        <v>67.25323418807346</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="U6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="V6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="W6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.63910264659903</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="C8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="D8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="E8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="F8" t="n">
-        <v>253.1663421328486</v>
+        <v>126.1811110569491</v>
       </c>
       <c r="G8" t="n">
-        <v>159.5653832549673</v>
+        <v>32.58015217906785</v>
       </c>
       <c r="H8" t="n">
-        <v>65.96442437708608</v>
+        <v>32.58015217906785</v>
       </c>
       <c r="I8" t="n">
         <v>32.58015217906785</v>
@@ -4805,10 +4805,10 @@
         <v>7.413195943128196</v>
       </c>
       <c r="K8" t="n">
-        <v>21.1835736482147</v>
+        <v>21.18357364821467</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940411</v>
+        <v>75.16870670940406</v>
       </c>
       <c r="M8" t="n">
         <v>166.9070065056153</v>
@@ -4826,28 +4826,28 @@
         <v>346.7673010107299</v>
       </c>
       <c r="R8" t="n">
-        <v>346.7673010107299</v>
+        <v>253.1663421328486</v>
       </c>
       <c r="S8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="T8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="U8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="V8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="W8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="X8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.7673010107299</v>
+        <v>219.7820699348304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>262.5712233385057</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="C9" t="n">
-        <v>262.5712233385057</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="D9" t="n">
-        <v>228.8043058960298</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="E9" t="n">
-        <v>135.2033470181485</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="F9" t="n">
-        <v>41.60238814026724</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="G9" t="n">
-        <v>41.60238814026724</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="H9" t="n">
-        <v>41.60238814026724</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026724</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128196</v>
       </c>
       <c r="K9" t="n">
-        <v>7.413195943128196</v>
+        <v>28.29609765201177</v>
       </c>
       <c r="L9" t="n">
-        <v>43.08143125983032</v>
+        <v>102.698277264897</v>
       </c>
       <c r="M9" t="n">
         <v>134.8197310560417</v>
@@ -4905,28 +4905,28 @@
         <v>356.1721822163869</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1721822163869</v>
+        <v>270.7484666479226</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1721822163869</v>
+        <v>177.1475077700413</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163869</v>
+        <v>83.54654889216006</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163869</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1721822163869</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1721822163869</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1721822163869</v>
+        <v>7.413195943128196</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.1721822163869</v>
+        <v>7.413195943128196</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2002.306809700758</v>
+        <v>2002.306809700762</v>
       </c>
       <c r="C11" t="n">
-        <v>1633.344292760347</v>
+        <v>1633.34429276035</v>
       </c>
       <c r="D11" t="n">
-        <v>1275.078594153596</v>
+        <v>1289.757849077321</v>
       </c>
       <c r="E11" t="n">
-        <v>889.2903415553519</v>
+        <v>903.9695964790765</v>
       </c>
       <c r="F11" t="n">
-        <v>478.3044367657444</v>
+        <v>492.983691689469</v>
       </c>
       <c r="G11" t="n">
-        <v>101.4112217480966</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4112217480966</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="I11" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J11" t="n">
-        <v>308.2565516437617</v>
+        <v>308.2565516437612</v>
       </c>
       <c r="K11" t="n">
-        <v>703.4847567642264</v>
+        <v>703.4847567642269</v>
       </c>
       <c r="L11" t="n">
         <v>1230.702055542641</v>
       </c>
       <c r="M11" t="n">
-        <v>1849.002321775773</v>
+        <v>1849.002321775774</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.921141108418</v>
+        <v>2481.92114110842</v>
       </c>
       <c r="O11" t="n">
-        <v>3066.233173492079</v>
+        <v>3066.233173492081</v>
       </c>
       <c r="P11" t="n">
-        <v>3530.428973735933</v>
+        <v>3530.428973735936</v>
       </c>
       <c r="Q11" t="n">
-        <v>3830.847941213956</v>
+        <v>3830.84794121396</v>
       </c>
       <c r="R11" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475556</v>
       </c>
       <c r="S11" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475556</v>
       </c>
       <c r="T11" t="n">
-        <v>3716.368596154537</v>
+        <v>3716.368596154541</v>
       </c>
       <c r="U11" t="n">
-        <v>3462.877524354376</v>
+        <v>3462.877524354381</v>
       </c>
       <c r="V11" t="n">
-        <v>3131.814637010806</v>
+        <v>3131.81463701081</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.045981740692</v>
+        <v>2779.045981740695</v>
       </c>
       <c r="X11" t="n">
-        <v>2779.045981740692</v>
+        <v>2779.045981740695</v>
       </c>
       <c r="Y11" t="n">
-        <v>2388.90664976488</v>
+        <v>2388.906649764884</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9280638933584</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935059202434</v>
+        <v>312.3935059202433</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2939494295475</v>
+        <v>176.2939494295474</v>
       </c>
       <c r="H12" t="n">
         <v>88.33733215540832</v>
       </c>
       <c r="I12" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J12" t="n">
-        <v>196.4846785305509</v>
+        <v>196.4846785305512</v>
       </c>
       <c r="K12" t="n">
-        <v>476.4585269951543</v>
+        <v>476.4585269951549</v>
       </c>
       <c r="L12" t="n">
-        <v>899.2404583298505</v>
+        <v>899.2404583298514</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.963899034294</v>
+        <v>1411.963899034295</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.193915170801</v>
+        <v>1952.66624847372</v>
       </c>
       <c r="O12" t="n">
-        <v>1992.611134930884</v>
+        <v>2425.083468233803</v>
       </c>
       <c r="P12" t="n">
-        <v>2352.434536582871</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="Q12" t="n">
-        <v>2543.047755108679</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="R12" t="n">
         <v>2558.943479921073</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.0023329816002</v>
+        <v>383.3368872201744</v>
       </c>
       <c r="C13" t="n">
-        <v>396.0023329816001</v>
+        <v>245.8856935692646</v>
       </c>
       <c r="D13" t="n">
         <v>245.8856935692645</v>
@@ -5188,61 +5188,61 @@
         <v>245.8856935692645</v>
       </c>
       <c r="G13" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="H13" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="I13" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J13" t="n">
-        <v>138.8364736705842</v>
+        <v>138.8364736705844</v>
       </c>
       <c r="K13" t="n">
-        <v>367.9827522988587</v>
+        <v>367.9827522988591</v>
       </c>
       <c r="L13" t="n">
-        <v>716.7375312435109</v>
+        <v>716.7375312435116</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.839669706899</v>
+        <v>1094.8396697069</v>
       </c>
       <c r="N13" t="n">
-        <v>1469.386000839313</v>
+        <v>1469.386000839314</v>
       </c>
       <c r="O13" t="n">
-        <v>1799.323864205993</v>
+        <v>1799.323864205994</v>
       </c>
       <c r="P13" t="n">
-        <v>2058.122022614512</v>
+        <v>2058.122022614514</v>
       </c>
       <c r="Q13" t="n">
-        <v>2153.865372781341</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="R13" t="n">
-        <v>2080.447974084782</v>
+        <v>2073.969458581595</v>
       </c>
       <c r="S13" t="n">
-        <v>2080.447974084782</v>
+        <v>1886.134063493117</v>
       </c>
       <c r="T13" t="n">
-        <v>1859.625401361563</v>
+        <v>1665.311490769897</v>
       </c>
       <c r="U13" t="n">
-        <v>1570.534586096235</v>
+        <v>1376.220675504569</v>
       </c>
       <c r="V13" t="n">
-        <v>1315.850097890348</v>
+        <v>1121.536187298683</v>
       </c>
       <c r="W13" t="n">
-        <v>1026.432927853387</v>
+        <v>832.1190172617219</v>
       </c>
       <c r="X13" t="n">
-        <v>798.44337695537</v>
+        <v>604.1294663637045</v>
       </c>
       <c r="Y13" t="n">
-        <v>577.6507978118399</v>
+        <v>383.3368872201744</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2309.525218785279</v>
+        <v>1882.332123239842</v>
       </c>
       <c r="C14" t="n">
-        <v>1940.562701844868</v>
+        <v>1513.36960629943</v>
       </c>
       <c r="D14" t="n">
-        <v>1582.297003238117</v>
+        <v>1289.757849077321</v>
       </c>
       <c r="E14" t="n">
-        <v>1196.508750639873</v>
+        <v>903.9695964790765</v>
       </c>
       <c r="F14" t="n">
-        <v>785.5228458502656</v>
+        <v>492.983691689469</v>
       </c>
       <c r="G14" t="n">
-        <v>370.9429572703081</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="H14" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="I14" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J14" t="n">
-        <v>308.2565516437608</v>
+        <v>308.2565516437614</v>
       </c>
       <c r="K14" t="n">
-        <v>703.4847567642257</v>
+        <v>703.4847567642269</v>
       </c>
       <c r="L14" t="n">
-        <v>1230.702055542639</v>
+        <v>1230.702055542641</v>
       </c>
       <c r="M14" t="n">
-        <v>1849.002321775773</v>
+        <v>1849.002321775774</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.921141108417</v>
+        <v>2481.92114110842</v>
       </c>
       <c r="O14" t="n">
-        <v>3066.233173492079</v>
+        <v>3066.233173492081</v>
       </c>
       <c r="P14" t="n">
-        <v>3530.428973735933</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q14" t="n">
-        <v>3830.847941213956</v>
+        <v>3830.84794121396</v>
       </c>
       <c r="R14" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475556</v>
       </c>
       <c r="S14" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475556</v>
       </c>
       <c r="T14" t="n">
-        <v>3920.190155475552</v>
+        <v>3716.368596154541</v>
       </c>
       <c r="U14" t="n">
-        <v>3920.190155475552</v>
+        <v>3716.368596154541</v>
       </c>
       <c r="V14" t="n">
-        <v>3589.127268131982</v>
+        <v>3385.30570881097</v>
       </c>
       <c r="W14" t="n">
-        <v>3459.730149086293</v>
+        <v>3032.537053540856</v>
       </c>
       <c r="X14" t="n">
-        <v>3086.264390825213</v>
+        <v>2659.071295279776</v>
       </c>
       <c r="Y14" t="n">
-        <v>2696.125058849401</v>
+        <v>2268.931963303964</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>458.9280638933584</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3935059202434</v>
+        <v>312.3935059202433</v>
       </c>
       <c r="G15" t="n">
-        <v>176.2939494295475</v>
+        <v>176.2939494295474</v>
       </c>
       <c r="H15" t="n">
         <v>88.33733215540832</v>
       </c>
       <c r="I15" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J15" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="K15" t="n">
-        <v>78.40380310951105</v>
+        <v>358.3776515741149</v>
       </c>
       <c r="L15" t="n">
-        <v>501.1857344442072</v>
+        <v>781.1595829088114</v>
       </c>
       <c r="M15" t="n">
-        <v>1013.909175148651</v>
+        <v>1293.883023613255</v>
       </c>
       <c r="N15" t="n">
-        <v>1554.611524588075</v>
+        <v>1834.58537305268</v>
       </c>
       <c r="O15" t="n">
-        <v>2027.028744348157</v>
+        <v>2307.002592812763</v>
       </c>
       <c r="P15" t="n">
-        <v>2386.852146000145</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="Q15" t="n">
         <v>2558.943479921073</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.8856935692646</v>
+        <v>712.8516094919004</v>
       </c>
       <c r="C16" t="n">
-        <v>245.8856935692645</v>
+        <v>543.9154265639935</v>
       </c>
       <c r="D16" t="n">
-        <v>245.8856935692645</v>
+        <v>393.7987871516577</v>
       </c>
       <c r="E16" t="n">
         <v>245.8856935692645</v>
       </c>
       <c r="F16" t="n">
-        <v>245.8856935692644</v>
+        <v>245.8856935692645</v>
       </c>
       <c r="G16" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="H16" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="I16" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J16" t="n">
-        <v>138.8364736705842</v>
+        <v>138.8364736705845</v>
       </c>
       <c r="K16" t="n">
-        <v>367.9827522988587</v>
+        <v>367.9827522988591</v>
       </c>
       <c r="L16" t="n">
-        <v>716.7375312435111</v>
+        <v>716.7375312435116</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.839669706899</v>
+        <v>1094.8396697069</v>
       </c>
       <c r="N16" t="n">
-        <v>1469.386000839313</v>
+        <v>1469.386000839314</v>
       </c>
       <c r="O16" t="n">
-        <v>1799.323864205993</v>
+        <v>1799.323864205994</v>
       </c>
       <c r="P16" t="n">
-        <v>2058.122022614512</v>
+        <v>2058.122022614514</v>
       </c>
       <c r="Q16" t="n">
-        <v>2153.865372781341</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="R16" t="n">
-        <v>2073.969458581593</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="S16" t="n">
-        <v>1886.134063493115</v>
+        <v>1966.029977692864</v>
       </c>
       <c r="T16" t="n">
-        <v>1709.508761949227</v>
+        <v>1745.207404969645</v>
       </c>
       <c r="U16" t="n">
-        <v>1420.417946683899</v>
+        <v>1659.394311708518</v>
       </c>
       <c r="V16" t="n">
-        <v>1165.733458478012</v>
+        <v>1404.709823502631</v>
       </c>
       <c r="W16" t="n">
-        <v>876.3162884410517</v>
+        <v>1115.29265346567</v>
       </c>
       <c r="X16" t="n">
-        <v>648.3267375430344</v>
+        <v>1115.29265346567</v>
       </c>
       <c r="Y16" t="n">
-        <v>427.5341583995042</v>
+        <v>894.5000743221402</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2129.953086371937</v>
+        <v>1992.766522807189</v>
       </c>
       <c r="C17" t="n">
-        <v>1790.919258167083</v>
+        <v>1653.732694602334</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.582248295889</v>
+        <v>1325.395684731141</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.722684433202</v>
+        <v>969.5361208684535</v>
       </c>
       <c r="F17" t="n">
-        <v>725.6654683791518</v>
+        <v>588.478904814403</v>
       </c>
       <c r="G17" t="n">
-        <v>341.014268534751</v>
+        <v>203.8277049700015</v>
       </c>
       <c r="H17" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="I17" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J17" t="n">
-        <v>308.2565516437608</v>
+        <v>308.256551643761</v>
       </c>
       <c r="K17" t="n">
-        <v>703.4847567642257</v>
+        <v>703.4847567642266</v>
       </c>
       <c r="L17" t="n">
-        <v>1230.702055542639</v>
+        <v>1230.702055542641</v>
       </c>
       <c r="M17" t="n">
-        <v>1849.002321775773</v>
+        <v>1849.002321775774</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.921141108417</v>
+        <v>2481.921141108419</v>
       </c>
       <c r="O17" t="n">
-        <v>3066.233173492078</v>
+        <v>3066.233173492081</v>
       </c>
       <c r="P17" t="n">
-        <v>3530.428973735932</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q17" t="n">
-        <v>3830.847941213956</v>
+        <v>3830.84794121396</v>
       </c>
       <c r="R17" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475556</v>
       </c>
       <c r="S17" t="n">
-        <v>3920.190155475552</v>
+        <v>3851.05242262956</v>
       </c>
       <c r="T17" t="n">
-        <v>3920.190155475552</v>
+        <v>3677.159552044102</v>
       </c>
       <c r="U17" t="n">
-        <v>3696.62777241095</v>
+        <v>3677.159552044102</v>
       </c>
       <c r="V17" t="n">
-        <v>3513.211917000836</v>
+        <v>3376.025353436088</v>
       </c>
       <c r="W17" t="n">
-        <v>3190.371950466279</v>
+        <v>3053.185386901531</v>
       </c>
       <c r="X17" t="n">
-        <v>2846.834880940757</v>
+        <v>2709.648317376008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2486.624237700502</v>
+        <v>2349.437674135754</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>458.9280638933584</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3935059202434</v>
+        <v>312.3935059202433</v>
       </c>
       <c r="G18" t="n">
-        <v>176.2939494295475</v>
+        <v>176.2939494295474</v>
       </c>
       <c r="H18" t="n">
         <v>88.33733215540832</v>
       </c>
       <c r="I18" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J18" t="n">
-        <v>196.4846785305509</v>
+        <v>196.4846785305512</v>
       </c>
       <c r="K18" t="n">
-        <v>476.4585269951543</v>
+        <v>476.4585269951549</v>
       </c>
       <c r="L18" t="n">
-        <v>899.2404583298505</v>
+        <v>899.2404583298514</v>
       </c>
       <c r="M18" t="n">
-        <v>1411.963899034294</v>
+        <v>1411.963899034295</v>
       </c>
       <c r="N18" t="n">
-        <v>1952.666248473718</v>
+        <v>1520.1939151708</v>
       </c>
       <c r="O18" t="n">
-        <v>1992.611134930884</v>
+        <v>1992.611134930883</v>
       </c>
       <c r="P18" t="n">
         <v>2352.434536582871</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.7114836477024</v>
+        <v>764.9867830783712</v>
       </c>
       <c r="C19" t="n">
-        <v>566.7039894553526</v>
+        <v>625.9792888860213</v>
       </c>
       <c r="D19" t="n">
-        <v>566.7039894553526</v>
+        <v>625.9792888860213</v>
       </c>
       <c r="E19" t="n">
-        <v>507.9948840391851</v>
+        <v>507.9948840391852</v>
       </c>
       <c r="F19" t="n">
-        <v>391.0336252768318</v>
+        <v>391.0336252768319</v>
       </c>
       <c r="G19" t="n">
         <v>253.4804235526355</v>
@@ -5668,16 +5668,16 @@
         <v>139.1563377777414</v>
       </c>
       <c r="I19" t="n">
-        <v>78.40380310951105</v>
+        <v>78.40380310951113</v>
       </c>
       <c r="J19" t="n">
-        <v>168.1695815003035</v>
+        <v>168.1695815003038</v>
       </c>
       <c r="K19" t="n">
-        <v>426.6489679582974</v>
+        <v>426.6489679582978</v>
       </c>
       <c r="L19" t="n">
-        <v>804.7368547326693</v>
+        <v>804.7368547326698</v>
       </c>
       <c r="M19" t="n">
         <v>1212.172101025777</v>
@@ -5692,16 +5692,16 @@
         <v>2263.453777422549</v>
       </c>
       <c r="Q19" t="n">
-        <v>2388.530235419097</v>
+        <v>2388.530235419098</v>
       </c>
       <c r="R19" t="n">
-        <v>2338.563009954906</v>
+        <v>2338.563009954907</v>
       </c>
       <c r="S19" t="n">
         <v>2180.656303601985</v>
       </c>
       <c r="T19" t="n">
-        <v>1989.762419614322</v>
+        <v>1989.762419614323</v>
       </c>
       <c r="U19" t="n">
         <v>1730.600293084552</v>
@@ -5710,13 +5710,13 @@
         <v>1505.844493614222</v>
       </c>
       <c r="W19" t="n">
-        <v>1246.356012312818</v>
+        <v>1305.631311743487</v>
       </c>
       <c r="X19" t="n">
-        <v>1048.295150150358</v>
+        <v>1107.570449581027</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.431259742385</v>
+        <v>916.7065591730538</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2129.953086371937</v>
+        <v>2012.234743174041</v>
       </c>
       <c r="C20" t="n">
-        <v>1790.919258167083</v>
+        <v>1673.200914969187</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.582248295889</v>
+        <v>1344.863905097993</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.722684433202</v>
+        <v>989.0043412353061</v>
       </c>
       <c r="F20" t="n">
-        <v>725.6654683791518</v>
+        <v>607.9471251812556</v>
       </c>
       <c r="G20" t="n">
-        <v>341.014268534751</v>
+        <v>341.0142685347511</v>
       </c>
       <c r="H20" t="n">
-        <v>78.40380310951103</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I20" t="n">
-        <v>78.40380310951103</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J20" t="n">
-        <v>308.2565516437608</v>
+        <v>308.2565516437617</v>
       </c>
       <c r="K20" t="n">
-        <v>703.4847567642257</v>
+        <v>703.4847567642273</v>
       </c>
       <c r="L20" t="n">
-        <v>1230.702055542639</v>
+        <v>1230.702055542642</v>
       </c>
       <c r="M20" t="n">
-        <v>1849.002321775773</v>
+        <v>1849.002321775775</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.921141108417</v>
+        <v>2481.921141108421</v>
       </c>
       <c r="O20" t="n">
-        <v>3066.233173492078</v>
+        <v>3066.233173492082</v>
       </c>
       <c r="P20" t="n">
-        <v>3530.428973735932</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q20" t="n">
-        <v>3830.847941213956</v>
+        <v>3830.847941213961</v>
       </c>
       <c r="R20" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="S20" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="T20" t="n">
-        <v>3920.190155475552</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="U20" t="n">
-        <v>3814.34611560885</v>
+        <v>3696.627772410954</v>
       </c>
       <c r="V20" t="n">
-        <v>3513.211917000836</v>
+        <v>3395.49357380294</v>
       </c>
       <c r="W20" t="n">
-        <v>3190.371950466279</v>
+        <v>3072.653607268383</v>
       </c>
       <c r="X20" t="n">
-        <v>2846.834880940757</v>
+        <v>2729.116537742861</v>
       </c>
       <c r="Y20" t="n">
-        <v>2486.624237700502</v>
+        <v>2368.905894502606</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.2939494295474</v>
       </c>
       <c r="H21" t="n">
-        <v>88.33733215540829</v>
+        <v>88.33733215540832</v>
       </c>
       <c r="I21" t="n">
-        <v>78.40380310951103</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J21" t="n">
-        <v>78.40380310951103</v>
+        <v>196.4846785305512</v>
       </c>
       <c r="K21" t="n">
-        <v>358.3776515741145</v>
+        <v>476.458526995155</v>
       </c>
       <c r="L21" t="n">
-        <v>781.1595829088106</v>
+        <v>899.2404583298517</v>
       </c>
       <c r="M21" t="n">
-        <v>1293.883023613254</v>
+        <v>1411.963899034296</v>
       </c>
       <c r="N21" t="n">
-        <v>1726.702858509002</v>
+        <v>1520.193915170799</v>
       </c>
       <c r="O21" t="n">
-        <v>2199.120078269085</v>
+        <v>1992.611134930883</v>
       </c>
       <c r="P21" t="n">
-        <v>2558.943479921073</v>
+        <v>2352.434536582871</v>
       </c>
       <c r="Q21" t="n">
-        <v>2558.943479921073</v>
+        <v>2543.047755108679</v>
       </c>
       <c r="R21" t="n">
         <v>2558.943479921073</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.7114836477017</v>
+        <v>705.7114836477037</v>
       </c>
       <c r="C22" t="n">
-        <v>566.7039894553518</v>
+        <v>566.7039894553538</v>
       </c>
       <c r="D22" t="n">
-        <v>507.994884039185</v>
+        <v>507.9948840391853</v>
       </c>
       <c r="E22" t="n">
-        <v>507.994884039185</v>
+        <v>507.9948840391853</v>
       </c>
       <c r="F22" t="n">
-        <v>391.0336252768317</v>
+        <v>391.0336252768319</v>
       </c>
       <c r="G22" t="n">
-        <v>253.4804235526353</v>
+        <v>253.4804235526355</v>
       </c>
       <c r="H22" t="n">
-        <v>139.1563377777413</v>
+        <v>139.1563377777414</v>
       </c>
       <c r="I22" t="n">
-        <v>78.40380310951103</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J22" t="n">
-        <v>168.169581500304</v>
+        <v>168.1695815003039</v>
       </c>
       <c r="K22" t="n">
-        <v>426.6489679582974</v>
+        <v>426.6489679582976</v>
       </c>
       <c r="L22" t="n">
-        <v>804.7368547326693</v>
+        <v>804.7368547326696</v>
       </c>
       <c r="M22" t="n">
         <v>1212.172101025777</v>
       </c>
       <c r="N22" t="n">
-        <v>1616.051539987911</v>
+        <v>1616.051539987912</v>
       </c>
       <c r="O22" t="n">
-        <v>1975.32251118431</v>
+        <v>1975.322511184311</v>
       </c>
       <c r="P22" t="n">
-        <v>2263.453777422549</v>
+        <v>2263.45377742255</v>
       </c>
       <c r="Q22" t="n">
-        <v>2388.530235419097</v>
+        <v>2388.530235419099</v>
       </c>
       <c r="R22" t="n">
-        <v>2338.563009954906</v>
+        <v>2338.563009954908</v>
       </c>
       <c r="S22" t="n">
-        <v>2180.656303601984</v>
+        <v>2180.656303601987</v>
       </c>
       <c r="T22" t="n">
-        <v>1989.762419614322</v>
+        <v>1989.762419614324</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.600293084551</v>
+        <v>1730.600293084553</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.844493614221</v>
+        <v>1505.844493614224</v>
       </c>
       <c r="W22" t="n">
-        <v>1246.356012312818</v>
+        <v>1246.35601231282</v>
       </c>
       <c r="X22" t="n">
-        <v>1048.295150150357</v>
+        <v>1048.29515015036</v>
       </c>
       <c r="Y22" t="n">
-        <v>857.4312597423843</v>
+        <v>857.4312597423865</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2133.763350866185</v>
+        <v>2133.763350866184</v>
       </c>
       <c r="C23" t="n">
-        <v>1794.729522661331</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D23" t="n">
-        <v>1466.392512790137</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E23" t="n">
-        <v>1110.53294892745</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F23" t="n">
-        <v>729.4757328733995</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G23" t="n">
         <v>345.1198728751922</v>
@@ -5987,10 +5987,10 @@
         <v>85.53405664979169</v>
       </c>
       <c r="J23" t="n">
-        <v>339.9545801096006</v>
+        <v>339.9545801096001</v>
       </c>
       <c r="K23" t="n">
-        <v>772.0035113048184</v>
+        <v>772.0035113048179</v>
       </c>
       <c r="L23" t="n">
         <v>1344.900176690282</v>
@@ -6020,19 +6020,19 @@
         <v>4041.695135980005</v>
       </c>
       <c r="U23" t="n">
-        <v>3818.156380103098</v>
+        <v>3818.156380103097</v>
       </c>
       <c r="V23" t="n">
-        <v>3517.022181495085</v>
+        <v>3517.022181495083</v>
       </c>
       <c r="W23" t="n">
-        <v>3194.182214960528</v>
+        <v>3194.182214960526</v>
       </c>
       <c r="X23" t="n">
-        <v>2850.645145435005</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y23" t="n">
-        <v>2490.43450219475</v>
+        <v>2490.434502194749</v>
       </c>
     </row>
     <row r="24">
@@ -6060,7 +6060,7 @@
         <v>176.457428551721</v>
       </c>
       <c r="H24" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610473</v>
       </c>
       <c r="I24" t="n">
         <v>85.53405664979169</v>
@@ -6069,16 +6069,16 @@
         <v>218.2473305103869</v>
       </c>
       <c r="K24" t="n">
-        <v>523.2302785223238</v>
+        <v>523.2302785223237</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6400305129871</v>
+        <v>913.1516768337517</v>
       </c>
       <c r="M24" t="n">
-        <v>1531.605551801113</v>
+        <v>1465.117198121878</v>
       </c>
       <c r="N24" t="n">
-        <v>2112.588602928815</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O24" t="n">
         <v>2555.3664415806</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.4020931962975</v>
+        <v>850.4020931962954</v>
       </c>
       <c r="C25" t="n">
-        <v>711.3945990039476</v>
+        <v>711.3945990039456</v>
       </c>
       <c r="D25" t="n">
-        <v>591.206648327169</v>
+        <v>591.2066483271669</v>
       </c>
       <c r="E25" t="n">
-        <v>509.8307835054834</v>
+        <v>509.8307835054836</v>
       </c>
       <c r="F25" t="n">
-        <v>392.8695247431301</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G25" t="n">
-        <v>255.4488023064993</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3025778337787</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I25" t="n">
         <v>85.53405664979169</v>
       </c>
       <c r="J25" t="n">
-        <v>184.4797315874125</v>
+        <v>184.4797315874121</v>
       </c>
       <c r="K25" t="n">
-        <v>458.0445080246354</v>
+        <v>458.044508024635</v>
       </c>
       <c r="L25" t="n">
         <v>855.4365002544305</v>
@@ -6163,34 +6163,34 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P25" t="n">
-        <v>2388.433033320908</v>
+        <v>2388.433033320907</v>
       </c>
       <c r="Q25" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.382067772751</v>
       </c>
       <c r="R25" t="n">
-        <v>2480.371592820371</v>
+        <v>2480.37159282037</v>
       </c>
       <c r="S25" t="n">
-        <v>2324.773639142569</v>
+        <v>2324.773639142567</v>
       </c>
       <c r="T25" t="n">
-        <v>2134.445803019959</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U25" t="n">
-        <v>1875.290902633147</v>
+        <v>1875.290902633145</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.535103162817</v>
+        <v>1650.535103162815</v>
       </c>
       <c r="W25" t="n">
-        <v>1391.046621861414</v>
+        <v>1391.046621861411</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.985759698953</v>
+        <v>1192.985759698951</v>
       </c>
       <c r="Y25" t="n">
-        <v>1002.12186929098</v>
+        <v>1002.121869290978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2133.763350866184</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C26" t="n">
-        <v>1794.729522661329</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D26" t="n">
         <v>1466.392512790136</v>
@@ -6212,10 +6212,10 @@
         <v>1110.532948927449</v>
       </c>
       <c r="F26" t="n">
-        <v>729.4757328733981</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G26" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H26" t="n">
         <v>85.53405664979174</v>
@@ -6251,25 +6251,25 @@
         <v>4276.702832489586</v>
       </c>
       <c r="S26" t="n">
-        <v>4214.295156388747</v>
+        <v>4214.295156388748</v>
       </c>
       <c r="T26" t="n">
-        <v>4041.695135980005</v>
+        <v>4041.695135980006</v>
       </c>
       <c r="U26" t="n">
-        <v>3818.156380103097</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V26" t="n">
         <v>3517.022181495084</v>
       </c>
       <c r="W26" t="n">
-        <v>3194.182214960526</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X26" t="n">
-        <v>2850.645145435003</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y26" t="n">
-        <v>2490.434502194748</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J27" t="n">
-        <v>85.53405664979174</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K27" t="n">
-        <v>390.5170046617287</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L27" t="n">
-        <v>846.926756652392</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M27" t="n">
-        <v>1398.892277940518</v>
+        <v>1465.117198121878</v>
       </c>
       <c r="N27" t="n">
-        <v>1979.87532906822</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O27" t="n">
-        <v>2489.14152139924</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P27" t="n">
         <v>2555.3664415806</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>850.4020931962968</v>
+        <v>850.4020931962961</v>
       </c>
       <c r="C28" t="n">
-        <v>711.394599003947</v>
+        <v>711.3945990039462</v>
       </c>
       <c r="D28" t="n">
-        <v>591.2066483271683</v>
+        <v>591.2066483271675</v>
       </c>
       <c r="E28" t="n">
-        <v>473.2222434803323</v>
+        <v>509.8307835054836</v>
       </c>
       <c r="F28" t="n">
-        <v>356.2609847179791</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G28" t="n">
-        <v>218.8402622813483</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3025778337792</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I28" t="n">
         <v>85.53405664979174</v>
@@ -6385,10 +6385,10 @@
         <v>184.4797315874125</v>
       </c>
       <c r="K28" t="n">
-        <v>458.0445080246353</v>
+        <v>458.0445080246352</v>
       </c>
       <c r="L28" t="n">
-        <v>855.4365002544305</v>
+        <v>855.4365002544304</v>
       </c>
       <c r="M28" t="n">
         <v>1283.225219114975</v>
@@ -6409,10 +6409,10 @@
         <v>2480.371592820371</v>
       </c>
       <c r="S28" t="n">
-        <v>2324.773639142569</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T28" t="n">
-        <v>2134.445803019959</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U28" t="n">
         <v>1875.290902633146</v>
@@ -6421,10 +6421,10 @@
         <v>1650.535103162816</v>
       </c>
       <c r="W28" t="n">
-        <v>1391.046621861413</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.985759698953</v>
+        <v>1192.985759698952</v>
       </c>
       <c r="Y28" t="n">
         <v>1002.121869290979</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2133.763350866183</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C29" t="n">
-        <v>1794.729522661329</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D29" t="n">
-        <v>1466.392512790135</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E29" t="n">
-        <v>1110.532948927448</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F29" t="n">
-        <v>729.4757328733976</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G29" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H29" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I29" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J29" t="n">
         <v>339.9545801096006</v>
@@ -6470,43 +6470,43 @@
         <v>1344.900176690282</v>
       </c>
       <c r="M29" t="n">
-        <v>2014.02753974543</v>
+        <v>2014.027539745431</v>
       </c>
       <c r="N29" t="n">
-        <v>2698.595891464764</v>
+        <v>2698.595891464765</v>
       </c>
       <c r="O29" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P29" t="n">
-        <v>3837.499994217055</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q29" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R29" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S29" t="n">
-        <v>4214.295156388745</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T29" t="n">
-        <v>4041.695135980003</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U29" t="n">
-        <v>3818.156380103097</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V29" t="n">
-        <v>3517.022181495083</v>
+        <v>3517.022181495084</v>
       </c>
       <c r="W29" t="n">
-        <v>3194.182214960526</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X29" t="n">
-        <v>2850.645145435003</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y29" t="n">
-        <v>2490.434502194748</v>
+        <v>2490.434502194749</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.457428551721</v>
       </c>
       <c r="H30" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I30" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J30" t="n">
-        <v>85.53405664979169</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K30" t="n">
-        <v>313.3707046088749</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L30" t="n">
-        <v>313.3707046088749</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M30" t="n">
-        <v>865.3362258970011</v>
+        <v>1465.117198121878</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.319277024703</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O30" t="n">
-        <v>1955.585469355723</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.983420158695</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.3664415806</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.4020931962971</v>
+        <v>850.4020931962954</v>
       </c>
       <c r="C31" t="n">
-        <v>748.0031390290981</v>
+        <v>711.3945990039455</v>
       </c>
       <c r="D31" t="n">
-        <v>627.8151883523194</v>
+        <v>591.2066483271667</v>
       </c>
       <c r="E31" t="n">
-        <v>509.8307835054834</v>
+        <v>473.2222434803306</v>
       </c>
       <c r="F31" t="n">
-        <v>392.8695247431301</v>
+        <v>392.8695247431304</v>
       </c>
       <c r="G31" t="n">
-        <v>255.4488023064993</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3025778337787</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I31" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J31" t="n">
-        <v>184.4797315874128</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K31" t="n">
-        <v>458.0445080246357</v>
+        <v>458.0445080246353</v>
       </c>
       <c r="L31" t="n">
-        <v>855.4365002544307</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M31" t="n">
         <v>1283.225219114975</v>
@@ -6637,34 +6637,34 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P31" t="n">
-        <v>2388.433033320908</v>
+        <v>2388.433033320907</v>
       </c>
       <c r="Q31" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.382067772751</v>
       </c>
       <c r="R31" t="n">
-        <v>2480.371592820371</v>
+        <v>2480.37159282037</v>
       </c>
       <c r="S31" t="n">
-        <v>2324.773639142569</v>
+        <v>2324.773639142567</v>
       </c>
       <c r="T31" t="n">
-        <v>2134.445803019959</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U31" t="n">
-        <v>1875.290902633146</v>
+        <v>1875.290902633145</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.535103162817</v>
+        <v>1650.535103162815</v>
       </c>
       <c r="W31" t="n">
-        <v>1391.046621861413</v>
+        <v>1391.046621861411</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.985759698953</v>
+        <v>1192.985759698951</v>
       </c>
       <c r="Y31" t="n">
-        <v>1002.12186929098</v>
+        <v>1002.121869290978</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J32" t="n">
-        <v>339.954580109601</v>
+        <v>339.9545801096006</v>
       </c>
       <c r="K32" t="n">
-        <v>772.0035113048193</v>
+        <v>772.0035113048184</v>
       </c>
       <c r="L32" t="n">
-        <v>1344.900176690283</v>
+        <v>1344.900176690282</v>
       </c>
       <c r="M32" t="n">
-        <v>2014.027539745432</v>
+        <v>2014.027539745431</v>
       </c>
       <c r="N32" t="n">
-        <v>2698.595891464766</v>
+        <v>2698.595891464765</v>
       </c>
       <c r="O32" t="n">
         <v>3331.679112672872</v>
       </c>
       <c r="P32" t="n">
-        <v>3837.499994217058</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q32" t="n">
         <v>4169.177664232584</v>
@@ -6777,25 +6777,25 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J33" t="n">
-        <v>85.53405664979174</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K33" t="n">
-        <v>313.3707046088749</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L33" t="n">
-        <v>313.3707046088749</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M33" t="n">
-        <v>865.3362258970011</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.319277024703</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O33" t="n">
-        <v>1955.585469355723</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.983420158695</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.3664415806</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.4020931962959</v>
+        <v>850.4020931962963</v>
       </c>
       <c r="C34" t="n">
         <v>748.0031390290986</v>
@@ -6841,13 +6841,13 @@
         <v>627.8151883523199</v>
       </c>
       <c r="E34" t="n">
-        <v>509.8307835054837</v>
+        <v>509.8307835054838</v>
       </c>
       <c r="F34" t="n">
-        <v>392.8695247431303</v>
+        <v>392.8695247431304</v>
       </c>
       <c r="G34" t="n">
-        <v>255.4488023064994</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H34" t="n">
         <v>142.3025778337789</v>
@@ -6856,16 +6856,16 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J34" t="n">
-        <v>184.4797315874125</v>
+        <v>184.4797315874123</v>
       </c>
       <c r="K34" t="n">
-        <v>458.0445080246354</v>
+        <v>458.0445080246351</v>
       </c>
       <c r="L34" t="n">
-        <v>855.4365002544306</v>
+        <v>855.4365002544303</v>
       </c>
       <c r="M34" t="n">
-        <v>1283.225219114975</v>
+        <v>1283.225219114974</v>
       </c>
       <c r="N34" t="n">
         <v>1706.97417055914</v>
@@ -6883,7 +6883,7 @@
         <v>2480.37159282037</v>
       </c>
       <c r="S34" t="n">
-        <v>2324.773639142567</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T34" t="n">
         <v>2134.445803019958</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2133.763350866183</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C35" t="n">
-        <v>1794.729522661329</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D35" t="n">
-        <v>1466.392512790135</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.532948927448</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F35" t="n">
-        <v>729.4757328733976</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G35" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H35" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I35" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J35" t="n">
-        <v>339.9545801096006</v>
+        <v>339.954580109601</v>
       </c>
       <c r="K35" t="n">
-        <v>772.0035113048184</v>
+        <v>772.0035113048193</v>
       </c>
       <c r="L35" t="n">
-        <v>1344.900176690282</v>
+        <v>1344.900176690283</v>
       </c>
       <c r="M35" t="n">
-        <v>2014.02753974543</v>
+        <v>2014.027539745432</v>
       </c>
       <c r="N35" t="n">
-        <v>2698.595891464764</v>
+        <v>2698.595891464765</v>
       </c>
       <c r="O35" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672872</v>
       </c>
       <c r="P35" t="n">
-        <v>3837.499994217056</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q35" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R35" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S35" t="n">
-        <v>4214.295156388745</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T35" t="n">
-        <v>4041.695135980003</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U35" t="n">
         <v>3818.156380103097</v>
       </c>
       <c r="V35" t="n">
-        <v>3517.022181495083</v>
+        <v>3517.022181495084</v>
       </c>
       <c r="W35" t="n">
-        <v>3194.182214960525</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X35" t="n">
-        <v>2850.645145435003</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y35" t="n">
-        <v>2490.434502194748</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>176.457428551721</v>
       </c>
       <c r="H36" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I36" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J36" t="n">
-        <v>218.2473305103869</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K36" t="n">
-        <v>523.2302785223238</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L36" t="n">
-        <v>979.6400305129871</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M36" t="n">
-        <v>1531.605551801113</v>
+        <v>1465.117198121878</v>
       </c>
       <c r="N36" t="n">
-        <v>1656.702298446607</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O36" t="n">
-        <v>2165.968490777627</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P36" t="n">
         <v>2555.3664415806</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>850.4020931962964</v>
+        <v>887.0106332214485</v>
       </c>
       <c r="C37" t="n">
-        <v>711.3945990039465</v>
+        <v>748.0031390290986</v>
       </c>
       <c r="D37" t="n">
-        <v>591.2066483271678</v>
+        <v>627.8151883523199</v>
       </c>
       <c r="E37" t="n">
-        <v>473.2222434803318</v>
+        <v>509.8307835054837</v>
       </c>
       <c r="F37" t="n">
-        <v>356.2609847179785</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G37" t="n">
-        <v>218.8402622813476</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H37" t="n">
-        <v>105.6940378086272</v>
+        <v>142.3025778337787</v>
       </c>
       <c r="I37" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J37" t="n">
         <v>184.4797315874123</v>
       </c>
       <c r="K37" t="n">
-        <v>458.0445080246355</v>
+        <v>458.0445080246351</v>
       </c>
       <c r="L37" t="n">
-        <v>855.4365002544307</v>
+        <v>855.4365002544303</v>
       </c>
       <c r="M37" t="n">
-        <v>1283.225219114975</v>
+        <v>1283.225219114974</v>
       </c>
       <c r="N37" t="n">
         <v>1706.97417055914</v>
@@ -7111,34 +7111,34 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P37" t="n">
-        <v>2388.433033320908</v>
+        <v>2388.433033320907</v>
       </c>
       <c r="Q37" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.382067772751</v>
       </c>
       <c r="R37" t="n">
-        <v>2480.371592820371</v>
+        <v>2480.37159282037</v>
       </c>
       <c r="S37" t="n">
-        <v>2324.773639142569</v>
+        <v>2361.382179167721</v>
       </c>
       <c r="T37" t="n">
-        <v>2134.445803019959</v>
+        <v>2171.054343045111</v>
       </c>
       <c r="U37" t="n">
-        <v>1875.290902633146</v>
+        <v>1911.899442658298</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.535103162816</v>
+        <v>1687.143643187968</v>
       </c>
       <c r="W37" t="n">
-        <v>1391.046621861412</v>
+        <v>1427.655161886565</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.985759698952</v>
+        <v>1229.594299724104</v>
       </c>
       <c r="Y37" t="n">
-        <v>1002.121869290979</v>
+        <v>1038.730409316131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2133.763350866183</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C38" t="n">
-        <v>1794.729522661329</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D38" t="n">
-        <v>1466.392512790135</v>
+        <v>1466.392512790137</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.532948927448</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F38" t="n">
-        <v>729.4757328733976</v>
+        <v>729.4757328733987</v>
       </c>
       <c r="G38" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H38" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I38" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J38" t="n">
-        <v>339.9545801096006</v>
+        <v>339.954580109601</v>
       </c>
       <c r="K38" t="n">
-        <v>772.0035113048184</v>
+        <v>772.0035113048193</v>
       </c>
       <c r="L38" t="n">
-        <v>1344.900176690282</v>
+        <v>1344.900176690283</v>
       </c>
       <c r="M38" t="n">
-        <v>2014.02753974543</v>
+        <v>2014.027539745432</v>
       </c>
       <c r="N38" t="n">
-        <v>2698.595891464764</v>
+        <v>2698.595891464766</v>
       </c>
       <c r="O38" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672872</v>
       </c>
       <c r="P38" t="n">
-        <v>3837.499994217056</v>
+        <v>3837.499994217058</v>
       </c>
       <c r="Q38" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R38" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S38" t="n">
-        <v>4214.295156388746</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T38" t="n">
-        <v>4041.695135980004</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U38" t="n">
-        <v>3818.156380103097</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V38" t="n">
-        <v>3517.022181495083</v>
+        <v>3517.022181495085</v>
       </c>
       <c r="W38" t="n">
-        <v>3194.182214960526</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X38" t="n">
-        <v>2850.645145435003</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y38" t="n">
-        <v>2490.434502194748</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.457428551721</v>
       </c>
       <c r="H39" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I39" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J39" t="n">
-        <v>85.53405664979169</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K39" t="n">
-        <v>313.3707046088749</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L39" t="n">
-        <v>313.3707046088749</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M39" t="n">
-        <v>865.3362258970011</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.319277024703</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O39" t="n">
-        <v>1955.585469355723</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.983420158695</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.3664415806</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.4020931962963</v>
+        <v>850.4020931962953</v>
       </c>
       <c r="C40" t="n">
-        <v>711.3945990039464</v>
+        <v>711.3945990039454</v>
       </c>
       <c r="D40" t="n">
-        <v>591.2066483271677</v>
+        <v>591.2066483271667</v>
       </c>
       <c r="E40" t="n">
-        <v>509.8307835054835</v>
+        <v>509.8307835054836</v>
       </c>
       <c r="F40" t="n">
-        <v>392.8695247431301</v>
+        <v>392.8695247431302</v>
       </c>
       <c r="G40" t="n">
-        <v>255.4488023064993</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3025778337787</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I40" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J40" t="n">
-        <v>184.4797315874125</v>
+        <v>184.4797315874121</v>
       </c>
       <c r="K40" t="n">
-        <v>458.0445080246354</v>
+        <v>458.044508024635</v>
       </c>
       <c r="L40" t="n">
-        <v>855.4365002544305</v>
+        <v>855.4365002544301</v>
       </c>
       <c r="M40" t="n">
-        <v>1283.225219114975</v>
+        <v>1283.225219114974</v>
       </c>
       <c r="N40" t="n">
         <v>1706.97417055914</v>
@@ -7348,34 +7348,34 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P40" t="n">
-        <v>2388.433033320908</v>
+        <v>2388.433033320907</v>
       </c>
       <c r="Q40" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.382067772751</v>
       </c>
       <c r="R40" t="n">
         <v>2480.371592820371</v>
       </c>
       <c r="S40" t="n">
-        <v>2324.773639142569</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T40" t="n">
-        <v>2134.445803019959</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U40" t="n">
-        <v>1875.290902633147</v>
+        <v>1875.290902633146</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.535103162817</v>
+        <v>1650.535103162816</v>
       </c>
       <c r="W40" t="n">
-        <v>1391.046621861413</v>
+        <v>1391.046621861411</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.985759698952</v>
+        <v>1192.985759698951</v>
       </c>
       <c r="Y40" t="n">
-        <v>1002.121869290979</v>
+        <v>1002.121869290978</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1794.72952266133</v>
       </c>
       <c r="D41" t="n">
-        <v>1466.392512790136</v>
+        <v>1466.392512790137</v>
       </c>
       <c r="E41" t="n">
         <v>1110.532948927449</v>
       </c>
       <c r="F41" t="n">
-        <v>729.4757328733986</v>
+        <v>729.4757328733987</v>
       </c>
       <c r="G41" t="n">
         <v>345.1198728751923</v>
@@ -7412,19 +7412,19 @@
         <v>339.954580109601</v>
       </c>
       <c r="K41" t="n">
-        <v>772.0035113048198</v>
+        <v>772.0035113048184</v>
       </c>
       <c r="L41" t="n">
-        <v>1344.900176690284</v>
+        <v>1344.900176690282</v>
       </c>
       <c r="M41" t="n">
-        <v>2014.027539745432</v>
+        <v>2014.02753974543</v>
       </c>
       <c r="N41" t="n">
-        <v>2698.595891464766</v>
+        <v>2698.595891464764</v>
       </c>
       <c r="O41" t="n">
-        <v>3331.679112672872</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P41" t="n">
         <v>3837.499994217057</v>
@@ -7445,16 +7445,16 @@
         <v>3818.156380103098</v>
       </c>
       <c r="V41" t="n">
-        <v>3517.022181495084</v>
+        <v>3517.022181495085</v>
       </c>
       <c r="W41" t="n">
-        <v>3194.182214960527</v>
+        <v>3194.182214960528</v>
       </c>
       <c r="X41" t="n">
-        <v>2850.645145435004</v>
+        <v>2850.645145435005</v>
       </c>
       <c r="Y41" t="n">
-        <v>2490.434502194749</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J42" t="n">
-        <v>85.53405664979174</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K42" t="n">
-        <v>85.53405664979174</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L42" t="n">
-        <v>287.8590737424289</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M42" t="n">
-        <v>839.8245950305551</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.807646158257</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.073838489277</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R42" t="n">
         <v>2555.3664415806</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>850.4020931962954</v>
+        <v>850.4020931962957</v>
       </c>
       <c r="C43" t="n">
-        <v>711.3945990039455</v>
+        <v>711.3945990039458</v>
       </c>
       <c r="D43" t="n">
-        <v>591.2066483271667</v>
+        <v>591.206648327167</v>
       </c>
       <c r="E43" t="n">
-        <v>473.2222434803306</v>
+        <v>473.222243480331</v>
       </c>
       <c r="F43" t="n">
-        <v>392.8695247431303</v>
+        <v>392.8695247431302</v>
       </c>
       <c r="G43" t="n">
         <v>255.4488023064994</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3025778337789</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I43" t="n">
         <v>85.53405664979174</v>
@@ -7573,10 +7573,10 @@
         <v>458.0445080246353</v>
       </c>
       <c r="L43" t="n">
-        <v>855.43650025443</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M43" t="n">
-        <v>1283.225219114974</v>
+        <v>1283.225219114975</v>
       </c>
       <c r="N43" t="n">
         <v>1706.97417055914</v>
@@ -7594,19 +7594,19 @@
         <v>2480.37159282037</v>
       </c>
       <c r="S43" t="n">
-        <v>2324.773639142567</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T43" t="n">
         <v>2134.445803019958</v>
       </c>
       <c r="U43" t="n">
-        <v>1875.290902633145</v>
+        <v>1875.290902633146</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.535103162815</v>
+        <v>1650.535103162816</v>
       </c>
       <c r="W43" t="n">
-        <v>1391.046621861411</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X43" t="n">
         <v>1192.985759698951</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2133.763350866184</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C44" t="n">
         <v>1794.72952266133</v>
@@ -7634,7 +7634,7 @@
         <v>1110.532948927449</v>
       </c>
       <c r="F44" t="n">
-        <v>729.4757328733983</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G44" t="n">
         <v>345.1198728751923</v>
@@ -7646,22 +7646,22 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J44" t="n">
-        <v>339.9545801096001</v>
+        <v>339.9545801096005</v>
       </c>
       <c r="K44" t="n">
-        <v>772.0035113048179</v>
+        <v>772.0035113048184</v>
       </c>
       <c r="L44" t="n">
-        <v>1344.900176690282</v>
+        <v>1344.900176690283</v>
       </c>
       <c r="M44" t="n">
-        <v>2014.02753974543</v>
+        <v>2014.027539745432</v>
       </c>
       <c r="N44" t="n">
-        <v>2698.595891464764</v>
+        <v>2698.595891464766</v>
       </c>
       <c r="O44" t="n">
-        <v>3331.679112672871</v>
+        <v>3331.679112672872</v>
       </c>
       <c r="P44" t="n">
         <v>3837.499994217058</v>
@@ -7679,10 +7679,10 @@
         <v>4041.695135980005</v>
       </c>
       <c r="U44" t="n">
-        <v>3818.156380103097</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V44" t="n">
-        <v>3517.022181495084</v>
+        <v>3517.022181495085</v>
       </c>
       <c r="W44" t="n">
         <v>3194.182214960527</v>
@@ -7691,7 +7691,7 @@
         <v>2850.645145435004</v>
       </c>
       <c r="Y44" t="n">
-        <v>2490.434502194749</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J45" t="n">
-        <v>85.53405664979174</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K45" t="n">
-        <v>85.53405664979174</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L45" t="n">
-        <v>541.943808640455</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M45" t="n">
-        <v>1093.909329928581</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N45" t="n">
-        <v>1674.892381056283</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O45" t="n">
-        <v>2184.158573387303</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P45" t="n">
         <v>2555.3664415806</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.4020931962958</v>
+        <v>850.4020931962962</v>
       </c>
       <c r="C46" t="n">
-        <v>711.3945990039459</v>
+        <v>748.0031390290983</v>
       </c>
       <c r="D46" t="n">
-        <v>591.2066483271672</v>
+        <v>627.8151883523196</v>
       </c>
       <c r="E46" t="n">
-        <v>473.222243480331</v>
+        <v>509.8307835054836</v>
       </c>
       <c r="F46" t="n">
-        <v>356.2609847179776</v>
+        <v>392.8695247431302</v>
       </c>
       <c r="G46" t="n">
-        <v>218.8402622813467</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H46" t="n">
-        <v>105.694037808626</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I46" t="n">
         <v>85.53405664979174</v>
       </c>
       <c r="J46" t="n">
-        <v>184.4797315874123</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0445080246351</v>
+        <v>458.0445080246352</v>
       </c>
       <c r="L46" t="n">
-        <v>855.4365002544303</v>
+        <v>855.4365002544304</v>
       </c>
       <c r="M46" t="n">
         <v>1283.225219114975</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14.53246237448393</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>37.30980682668735</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.613762619189</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.77734445219954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.0757573657376</v>
+        <v>98.07575736573752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>31.17013938422737</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.8102467653466</v>
       </c>
       <c r="I13" t="n">
-        <v>89.77441116974951</v>
+        <v>89.77441116974946</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.413730348156733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9570411375937</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>133.3074019707945</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>289.613762619189</v>
       </c>
       <c r="I14" t="n">
-        <v>22.77734445219969</v>
+        <v>22.77734445219954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.07575736573764</v>
+        <v>98.07575736573752</v>
       </c>
       <c r="T14" t="n">
-        <v>201.7833437278056</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9561610821584</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.1378208621812</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>142.8102467653466</v>
       </c>
       <c r="I16" t="n">
-        <v>89.77441116974951</v>
+        <v>89.77441116974946</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.09695505775036</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>43.75529846753833</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.2449447841582</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>135.8146979291021</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.44635551753612</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>172.1539418796041</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>221.3267592339569</v>
       </c>
       <c r="V17" t="n">
-        <v>116.5411597659219</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E19" t="n">
-        <v>58.68254643636181</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>58.68254643636209</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>116.5411597659168</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.44635551753612</v>
+        <v>68.44635551753605</v>
       </c>
       <c r="T20" t="n">
-        <v>172.1539418796041</v>
+        <v>172.1539418796042</v>
       </c>
       <c r="U20" t="n">
-        <v>116.5411597659222</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>60.86405680800571</v>
+        <v>60.86405680800338</v>
       </c>
       <c r="E22" t="n">
         <v>116.8045607983677</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>36.24245462489893</v>
+        <v>36.24245462490124</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.714628852932947e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>36.24245462490072</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.24245462489996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.24245462489937</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>36.24245462490161</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>36.2424546249011</v>
+        <v>36.24245462490076</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>36.24245462489999</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>36.24245462490077</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.513456027169013e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>36.24245462490028</v>
+        <v>36.2424546249014</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>36.24245462490161</v>
+        <v>36.24245462490106</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.2424546249005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>36.24245462490128</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751202.5087278332</v>
+        <v>751202.5087278336</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751202.5087278332</v>
+        <v>751202.5087278335</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>802987.9182118465</v>
+        <v>802987.9182118466</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802987.9182118465</v>
+        <v>802987.918211847</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834810.6061135816</v>
+        <v>834810.6061135815</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834810.6061135816</v>
+        <v>834810.6061135815</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834810.6061135816</v>
+        <v>834810.6061135815</v>
       </c>
     </row>
     <row r="12">
@@ -26320,40 +26320,40 @@
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>552422.8901756532</v>
+        <v>552422.8901756534</v>
       </c>
       <c r="F2" t="n">
-        <v>552422.890175653</v>
+        <v>552422.8901756534</v>
       </c>
       <c r="G2" t="n">
-        <v>591261.9472886629</v>
+        <v>591261.9472886631</v>
       </c>
       <c r="H2" t="n">
-        <v>591261.9472886628</v>
+        <v>591261.9472886631</v>
       </c>
       <c r="I2" t="n">
-        <v>615128.9632149639</v>
+        <v>615128.963214964</v>
       </c>
       <c r="J2" t="n">
-        <v>615128.963214964</v>
+        <v>615128.9632149638</v>
       </c>
       <c r="K2" t="n">
         <v>615128.9632149639</v>
       </c>
       <c r="L2" t="n">
-        <v>615128.9632149637</v>
+        <v>615128.9632149639</v>
       </c>
       <c r="M2" t="n">
-        <v>615128.963214964</v>
+        <v>615128.9632149639</v>
       </c>
       <c r="N2" t="n">
-        <v>615128.9632149636</v>
+        <v>615128.9632149639</v>
       </c>
       <c r="O2" t="n">
         <v>615128.963214964</v>
       </c>
       <c r="P2" t="n">
-        <v>615128.9632149639</v>
+        <v>615128.9632149645</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>65327.89037938145</v>
       </c>
       <c r="E3" t="n">
-        <v>870304.889059867</v>
+        <v>870304.8890598681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23703.52147856119</v>
+        <v>23703.52147856116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>78449.33642444089</v>
+        <v>78449.33642443949</v>
       </c>
       <c r="J3" t="n">
         <v>3639.907031011862</v>
       </c>
       <c r="K3" t="n">
-        <v>9235.2206718949</v>
+        <v>9235.220671895018</v>
       </c>
       <c r="L3" t="n">
-        <v>34553.51803558748</v>
+        <v>34553.51803558739</v>
       </c>
       <c r="M3" t="n">
-        <v>221139.2908536409</v>
+        <v>221139.2908536412</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>15336.82509001852</v>
       </c>
       <c r="G4" t="n">
-        <v>44967.38049573855</v>
+        <v>44967.38049573851</v>
       </c>
       <c r="H4" t="n">
-        <v>44967.38049573854</v>
+        <v>44967.38049573851</v>
       </c>
       <c r="I4" t="n">
-        <v>44501.3792296565</v>
+        <v>44501.37922965646</v>
       </c>
       <c r="J4" t="n">
-        <v>44501.37922965649</v>
+        <v>44501.37922965646</v>
       </c>
       <c r="K4" t="n">
-        <v>44501.37922965649</v>
+        <v>44501.37922965643</v>
       </c>
       <c r="L4" t="n">
         <v>44501.37922965643</v>
       </c>
       <c r="M4" t="n">
-        <v>44501.37922965649</v>
+        <v>44501.37922965643</v>
       </c>
       <c r="N4" t="n">
-        <v>44501.37922965649</v>
+        <v>44501.37922965644</v>
       </c>
       <c r="O4" t="n">
         <v>44501.37922965644</v>
       </c>
       <c r="P4" t="n">
-        <v>44501.37922965643</v>
+        <v>44501.37922965644</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>49237.11966583625</v>
       </c>
       <c r="E5" t="n">
-        <v>85988.35033443007</v>
+        <v>85988.35033443016</v>
       </c>
       <c r="F5" t="n">
-        <v>85988.35033443007</v>
+        <v>85988.35033443016</v>
       </c>
       <c r="G5" t="n">
-        <v>88479.26451840652</v>
+        <v>88479.26451840661</v>
       </c>
       <c r="H5" t="n">
-        <v>88479.2645184065</v>
+        <v>88479.26451840662</v>
       </c>
       <c r="I5" t="n">
         <v>95483.79581846154</v>
@@ -26494,16 +26494,16 @@
         <v>95483.79581846157</v>
       </c>
       <c r="K5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="L5" t="n">
         <v>95483.79581846157</v>
       </c>
       <c r="M5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="N5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="O5" t="n">
         <v>95483.79581846157</v>
@@ -26525,43 +26525,43 @@
         <v>179335.8505230459</v>
       </c>
       <c r="D6" t="n">
-        <v>188729.05580118</v>
+        <v>188729.0558011799</v>
       </c>
       <c r="E6" t="n">
-        <v>-419207.1743086624</v>
+        <v>-419418.3690994052</v>
       </c>
       <c r="F6" t="n">
-        <v>451097.7147512044</v>
+        <v>450886.5199604628</v>
       </c>
       <c r="G6" t="n">
-        <v>434111.7807959566</v>
+        <v>434030.049528925</v>
       </c>
       <c r="H6" t="n">
-        <v>457815.3022745177</v>
+        <v>457733.5710074863</v>
       </c>
       <c r="I6" t="n">
-        <v>396694.4517424051</v>
+        <v>396692.2771951291</v>
       </c>
       <c r="J6" t="n">
-        <v>471503.881135834</v>
+        <v>471501.7065885564</v>
       </c>
       <c r="K6" t="n">
-        <v>465908.567494951</v>
+        <v>465906.3929476734</v>
       </c>
       <c r="L6" t="n">
-        <v>440590.2701312582</v>
+        <v>440588.095583981</v>
       </c>
       <c r="M6" t="n">
-        <v>254004.4973132051</v>
+        <v>254002.3227659272</v>
       </c>
       <c r="N6" t="n">
-        <v>475143.7881668455</v>
+        <v>475141.6136195684</v>
       </c>
       <c r="O6" t="n">
-        <v>475143.7881668459</v>
+        <v>475141.6136195685</v>
       </c>
       <c r="P6" t="n">
-        <v>475143.7881668459</v>
+        <v>475141.613619569</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="J2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="K2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L2" t="n">
         <v>29.62940184820141</v>
       </c>
       <c r="M2" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N2" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>457.5913187641658</v>
       </c>
       <c r="E3" t="n">
-        <v>1211.076145467967</v>
+        <v>1211.076145467968</v>
       </c>
       <c r="F3" t="n">
-        <v>1211.076145467967</v>
+        <v>1211.076145467968</v>
       </c>
       <c r="G3" t="n">
-        <v>1211.076145467967</v>
+        <v>1211.076145467968</v>
       </c>
       <c r="H3" t="n">
-        <v>1211.076145467967</v>
+        <v>1211.076145467968</v>
       </c>
       <c r="I3" t="n">
         <v>1283.807274341441</v>
@@ -26796,16 +26796,16 @@
         <v>92.66494928910245</v>
       </c>
       <c r="E4" t="n">
-        <v>980.0475388688881</v>
+        <v>980.0475388688891</v>
       </c>
       <c r="F4" t="n">
-        <v>980.0475388688881</v>
+        <v>980.0475388688891</v>
       </c>
       <c r="G4" t="n">
-        <v>980.0475388688881</v>
+        <v>980.0475388688891</v>
       </c>
       <c r="H4" t="n">
-        <v>980.047538868888</v>
+        <v>980.0475388688893</v>
       </c>
       <c r="I4" t="n">
         <v>1069.175708122396</v>
@@ -26814,16 +26814,16 @@
         <v>1069.175708122397</v>
       </c>
       <c r="K4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="L4" t="n">
         <v>1069.175708122397</v>
       </c>
       <c r="M4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="N4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="O4" t="n">
         <v>1069.175708122397</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>60.73137549659776</v>
       </c>
       <c r="E3" t="n">
-        <v>753.484826703801</v>
+        <v>753.4848267038019</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>72.73112887347406</v>
+        <v>72.7311288734727</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>42.86994226197783</v>
       </c>
       <c r="E4" t="n">
-        <v>887.3825895797856</v>
+        <v>887.3825895797867</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,25 +27030,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.12816925350819</v>
+        <v>89.12816925350683</v>
       </c>
       <c r="J4" t="n">
         <v>13.91167781799645</v>
       </c>
       <c r="K4" t="n">
-        <v>35.88332920912818</v>
+        <v>35.88332920912863</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197828</v>
+        <v>42.86994226197783</v>
       </c>
       <c r="M4" t="n">
-        <v>887.3825895797852</v>
+        <v>887.3825895797867</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>42.86994226197783</v>
       </c>
       <c r="M4" t="n">
-        <v>887.3825895797856</v>
+        <v>887.3825895797867</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27403,10 +27403,10 @@
         <v>62.98145155663008</v>
       </c>
       <c r="K2" t="n">
-        <v>32.46536166392839</v>
+        <v>43.14184109502801</v>
       </c>
       <c r="L2" t="n">
-        <v>16.24676181371521</v>
+        <v>5.570282382615591</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27479,10 +27479,10 @@
         <v>73.89686224191296</v>
       </c>
       <c r="J3" t="n">
-        <v>42.60756948217988</v>
+        <v>56.51924730017588</v>
       </c>
       <c r="K3" t="n">
-        <v>5.402722668256603</v>
+        <v>3.744450672351478</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>31.063081130272</v>
       </c>
       <c r="R3" t="n">
-        <v>85.55701985507878</v>
+        <v>85.55701985507876</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8584491031374</v>
+        <v>145.6050432810465</v>
       </c>
       <c r="T3" t="n">
         <v>197.1647476986838</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.7388905389833</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2236106924079309</v>
+        <v>17.33225585657335</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27713,10 +27713,10 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782632</v>
+        <v>20.33727340070169</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
         <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>183.8820976034065</v>
       </c>
       <c r="U6" t="n">
-        <v>209.437232428981</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27868,10 +27868,10 @@
         <v>320.7982251355234</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259873</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>106.5057040475116</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.031082829933</v>
+        <v>7.366133540830546</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612667</v>
+        <v>134.0505961852287</v>
       </c>
       <c r="T8" t="n">
         <v>215.0431621354273</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.86823436076489</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>114.0158172965877</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>64.98013116629849</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>52.40426310428143</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.3592641379443</v>
@@ -27953,7 +27953,7 @@
         <v>65.63472101604998</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516765</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277967</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033687</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100185</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>150.504609172929</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I17" t="n">
-        <v>22.77734445219969</v>
+        <v>22.77734445219954</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="J19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="K19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="N19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="O19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="P19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="R19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="S19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I20" t="n">
-        <v>22.77734445219969</v>
+        <v>22.77734445219949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="J22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="K22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="N22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="O22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="P22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="R22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="S22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I23" t="n">
-        <v>11.5051159259902</v>
+        <v>11.50511592599022</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="J25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="K25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="N25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="O25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="P25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="R25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="S25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I26" t="n">
         <v>11.5051159259902</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="C28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="D28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="E28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="F28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="G28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="H28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="I28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="J28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="K28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="M28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="N28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="O28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="P28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="R28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="S28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="T28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="U28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="V28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="W28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="X28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820145</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I29" t="n">
         <v>11.5051159259902</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="J31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="K31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="O31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="R31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="S31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.62940184820149</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I35" t="n">
         <v>11.5051159259902</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="J37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="K37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="O37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="R37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="S37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I38" t="n">
         <v>11.5051159259902</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I41" t="n">
         <v>11.5051159259902</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I44" t="n">
         <v>11.5051159259902</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>120.1853104840115</v>
       </c>
       <c r="L3" t="n">
-        <v>143.7530531785868</v>
+        <v>152.4660575978702</v>
       </c>
       <c r="M3" t="n">
         <v>156.0457117400143</v>
@@ -31142,7 +31142,7 @@
         <v>145.2533899013293</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5079222624404</v>
+        <v>147.794917843157</v>
       </c>
       <c r="P3" t="n">
         <v>142.1253238409673</v>
@@ -31373,13 +31373,13 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>191.9290409491429</v>
+        <v>163.8914845489273</v>
       </c>
       <c r="N6" t="n">
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>164.3536950713535</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31604,13 +31604,13 @@
         <v>92.99032639149904</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843424</v>
       </c>
       <c r="L9" t="n">
-        <v>174.5829003017955</v>
+        <v>213.7080965605663</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111208</v>
+        <v>174.5799468423666</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724358</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.868647820976747</v>
+        <v>4.868647820976751</v>
       </c>
       <c r="H11" t="n">
-        <v>49.86103949657813</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I11" t="n">
-        <v>187.6985451182062</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J11" t="n">
-        <v>413.2203979956256</v>
+        <v>413.2203979956259</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3102602575715</v>
+        <v>619.3102602575719</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3091410087887</v>
+        <v>768.3091410087893</v>
       </c>
       <c r="M11" t="n">
-        <v>854.8919566950839</v>
+        <v>854.8919566950846</v>
       </c>
       <c r="N11" t="n">
-        <v>868.7250023164341</v>
+        <v>868.7250023164348</v>
       </c>
       <c r="O11" t="n">
-        <v>820.3123855465966</v>
+        <v>820.3123855465972</v>
       </c>
       <c r="P11" t="n">
-        <v>700.1176424662331</v>
+        <v>700.1176424662335</v>
       </c>
       <c r="Q11" t="n">
-        <v>525.7591923775032</v>
+        <v>525.7591923775035</v>
       </c>
       <c r="R11" t="n">
-        <v>305.8301986844309</v>
+        <v>305.8301986844311</v>
       </c>
       <c r="S11" t="n">
-        <v>110.9443122205077</v>
+        <v>110.9443122205078</v>
       </c>
       <c r="T11" t="n">
-        <v>21.31250583632572</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3894918256781397</v>
+        <v>0.38949182567814</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.604956237421665</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H12" t="n">
-        <v>25.15839313509871</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I12" t="n">
-        <v>89.68818624456171</v>
+        <v>89.68818624456178</v>
       </c>
       <c r="J12" t="n">
-        <v>246.1112382030705</v>
+        <v>246.1112382030707</v>
       </c>
       <c r="K12" t="n">
-        <v>420.643306110322</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L12" t="n">
-        <v>565.6068356735067</v>
+        <v>565.6068356735071</v>
       </c>
       <c r="M12" t="n">
-        <v>660.0364992800419</v>
+        <v>660.0364992800423</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6649607060676</v>
+        <v>677.5057014160851</v>
       </c>
       <c r="O12" t="n">
-        <v>619.7853553132151</v>
+        <v>619.7853553132155</v>
       </c>
       <c r="P12" t="n">
-        <v>497.4323888809844</v>
+        <v>269.1865404317741</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.5203786575444</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>161.7357916532504</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.38591958544185</v>
+        <v>48.38591958544189</v>
       </c>
       <c r="T12" t="n">
-        <v>10.49980167627416</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1713786998303727</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.183907803302891</v>
+        <v>2.183907803302892</v>
       </c>
       <c r="H13" t="n">
-        <v>19.41692574209299</v>
+        <v>19.416925742093</v>
       </c>
       <c r="I13" t="n">
-        <v>65.67606375750877</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J13" t="n">
-        <v>154.4022816935144</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K13" t="n">
-        <v>253.7303793291904</v>
+        <v>253.7303793291905</v>
       </c>
       <c r="L13" t="n">
-        <v>324.6875292292316</v>
+        <v>324.6875292292319</v>
       </c>
       <c r="M13" t="n">
-        <v>342.3374750213795</v>
+        <v>342.3374750213797</v>
       </c>
       <c r="N13" t="n">
-        <v>334.1974550272508</v>
+        <v>334.197455027251</v>
       </c>
       <c r="O13" t="n">
-        <v>308.6854411432124</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P13" t="n">
-        <v>264.1337219558332</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.872497965663</v>
+        <v>182.8724979656631</v>
       </c>
       <c r="R13" t="n">
-        <v>98.19643631941905</v>
+        <v>98.19643631941912</v>
       </c>
       <c r="S13" t="n">
-        <v>38.05955689937855</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T13" t="n">
-        <v>9.331242432294168</v>
+        <v>9.331242432294175</v>
       </c>
       <c r="U13" t="n">
         <v>0.1191222438165215</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.868647820976747</v>
+        <v>4.868647820976751</v>
       </c>
       <c r="H14" t="n">
-        <v>49.86103949657813</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I14" t="n">
-        <v>187.6985451182062</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J14" t="n">
-        <v>413.2203979956256</v>
+        <v>413.2203979956259</v>
       </c>
       <c r="K14" t="n">
-        <v>619.3102602575715</v>
+        <v>619.3102602575719</v>
       </c>
       <c r="L14" t="n">
-        <v>768.3091410087887</v>
+        <v>768.3091410087893</v>
       </c>
       <c r="M14" t="n">
-        <v>854.8919566950839</v>
+        <v>854.8919566950846</v>
       </c>
       <c r="N14" t="n">
-        <v>868.7250023164341</v>
+        <v>868.7250023164348</v>
       </c>
       <c r="O14" t="n">
-        <v>820.3123855465966</v>
+        <v>820.3123855465972</v>
       </c>
       <c r="P14" t="n">
-        <v>700.1176424662331</v>
+        <v>700.1176424662335</v>
       </c>
       <c r="Q14" t="n">
-        <v>525.7591923775032</v>
+        <v>525.7591923775035</v>
       </c>
       <c r="R14" t="n">
-        <v>305.8301986844309</v>
+        <v>305.8301986844311</v>
       </c>
       <c r="S14" t="n">
-        <v>110.9443122205077</v>
+        <v>110.9443122205078</v>
       </c>
       <c r="T14" t="n">
-        <v>21.31250583632572</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3894918256781397</v>
+        <v>0.38949182567814</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.604956237421665</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H15" t="n">
-        <v>25.15839313509871</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I15" t="n">
-        <v>89.68818624456171</v>
+        <v>89.68818624456178</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L15" t="n">
-        <v>565.6068356735067</v>
+        <v>565.6068356735071</v>
       </c>
       <c r="M15" t="n">
-        <v>660.0364992800419</v>
+        <v>660.0364992800423</v>
       </c>
       <c r="N15" t="n">
-        <v>677.5057014160847</v>
+        <v>677.5057014160851</v>
       </c>
       <c r="O15" t="n">
-        <v>619.7853553132151</v>
+        <v>619.7853553132155</v>
       </c>
       <c r="P15" t="n">
-        <v>497.4323888809844</v>
+        <v>388.4601519681784</v>
       </c>
       <c r="Q15" t="n">
-        <v>313.8114043091805</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>48.38591958544185</v>
+        <v>48.38591958544189</v>
       </c>
       <c r="T15" t="n">
-        <v>10.49980167627416</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1713786998303727</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.183907803302891</v>
+        <v>2.183907803302892</v>
       </c>
       <c r="H16" t="n">
-        <v>19.41692574209299</v>
+        <v>19.416925742093</v>
       </c>
       <c r="I16" t="n">
-        <v>65.67606375750877</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J16" t="n">
-        <v>154.4022816935144</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K16" t="n">
-        <v>253.7303793291904</v>
+        <v>253.7303793291905</v>
       </c>
       <c r="L16" t="n">
-        <v>324.6875292292316</v>
+        <v>324.6875292292319</v>
       </c>
       <c r="M16" t="n">
-        <v>342.3374750213795</v>
+        <v>342.3374750213797</v>
       </c>
       <c r="N16" t="n">
-        <v>334.1974550272508</v>
+        <v>334.197455027251</v>
       </c>
       <c r="O16" t="n">
-        <v>308.6854411432124</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P16" t="n">
-        <v>264.1337219558332</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.872497965663</v>
+        <v>182.8724979656631</v>
       </c>
       <c r="R16" t="n">
-        <v>98.19643631941905</v>
+        <v>98.19643631941912</v>
       </c>
       <c r="S16" t="n">
-        <v>38.05955689937855</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T16" t="n">
-        <v>9.331242432294168</v>
+        <v>9.331242432294175</v>
       </c>
       <c r="U16" t="n">
         <v>0.1191222438165215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.868647820976747</v>
+        <v>4.868647820976751</v>
       </c>
       <c r="H17" t="n">
-        <v>49.86103949657813</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I17" t="n">
-        <v>187.6985451182062</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J17" t="n">
-        <v>413.2203979956256</v>
+        <v>413.2203979956259</v>
       </c>
       <c r="K17" t="n">
-        <v>619.3102602575715</v>
+        <v>619.3102602575719</v>
       </c>
       <c r="L17" t="n">
-        <v>768.3091410087887</v>
+        <v>768.3091410087893</v>
       </c>
       <c r="M17" t="n">
-        <v>854.8919566950839</v>
+        <v>854.8919566950846</v>
       </c>
       <c r="N17" t="n">
-        <v>868.7250023164341</v>
+        <v>868.7250023164348</v>
       </c>
       <c r="O17" t="n">
-        <v>820.3123855465966</v>
+        <v>820.3123855465972</v>
       </c>
       <c r="P17" t="n">
-        <v>700.1176424662331</v>
+        <v>700.1176424662335</v>
       </c>
       <c r="Q17" t="n">
-        <v>525.7591923775032</v>
+        <v>525.7591923775035</v>
       </c>
       <c r="R17" t="n">
-        <v>305.8301986844309</v>
+        <v>305.8301986844311</v>
       </c>
       <c r="S17" t="n">
-        <v>110.9443122205077</v>
+        <v>110.9443122205078</v>
       </c>
       <c r="T17" t="n">
-        <v>21.31250583632572</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3894918256781397</v>
+        <v>0.38949182567814</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.604956237421665</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H18" t="n">
-        <v>25.15839313509871</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I18" t="n">
-        <v>89.68818624456171</v>
+        <v>89.68818624456178</v>
       </c>
       <c r="J18" t="n">
-        <v>246.1112382030705</v>
+        <v>246.1112382030707</v>
       </c>
       <c r="K18" t="n">
-        <v>420.643306110322</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L18" t="n">
-        <v>565.6068356735067</v>
+        <v>565.6068356735071</v>
       </c>
       <c r="M18" t="n">
-        <v>660.0364992800419</v>
+        <v>660.0364992800423</v>
       </c>
       <c r="N18" t="n">
-        <v>677.5057014160847</v>
+        <v>240.6649607060648</v>
       </c>
       <c r="O18" t="n">
-        <v>182.9446146031979</v>
+        <v>619.7853553132155</v>
       </c>
       <c r="P18" t="n">
-        <v>497.4323888809844</v>
+        <v>497.4323888809848</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.5203786575444</v>
+        <v>332.5203786575447</v>
       </c>
       <c r="R18" t="n">
-        <v>161.7357916532504</v>
+        <v>161.7357916532505</v>
       </c>
       <c r="S18" t="n">
-        <v>48.38591958544185</v>
+        <v>48.38591958544189</v>
       </c>
       <c r="T18" t="n">
-        <v>10.49980167627416</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1713786998303727</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.183907803302891</v>
+        <v>2.183907803302892</v>
       </c>
       <c r="H19" t="n">
-        <v>19.41692574209299</v>
+        <v>19.416925742093</v>
       </c>
       <c r="I19" t="n">
-        <v>65.67606375750877</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J19" t="n">
-        <v>154.4022816935144</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K19" t="n">
-        <v>253.7303793291904</v>
+        <v>253.7303793291905</v>
       </c>
       <c r="L19" t="n">
-        <v>324.6875292292316</v>
+        <v>324.6875292292319</v>
       </c>
       <c r="M19" t="n">
-        <v>342.3374750213795</v>
+        <v>342.3374750213797</v>
       </c>
       <c r="N19" t="n">
-        <v>334.1974550272508</v>
+        <v>334.197455027251</v>
       </c>
       <c r="O19" t="n">
-        <v>308.6854411432124</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P19" t="n">
-        <v>264.1337219558332</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.872497965663</v>
+        <v>182.8724979656631</v>
       </c>
       <c r="R19" t="n">
-        <v>98.19643631941905</v>
+        <v>98.19643631941912</v>
       </c>
       <c r="S19" t="n">
-        <v>38.05955689937855</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T19" t="n">
-        <v>9.331242432294168</v>
+        <v>9.331242432294175</v>
       </c>
       <c r="U19" t="n">
         <v>0.1191222438165215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.868647820976747</v>
+        <v>4.868647820976752</v>
       </c>
       <c r="H20" t="n">
-        <v>49.86103949657813</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I20" t="n">
-        <v>187.6985451182062</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J20" t="n">
-        <v>413.2203979956256</v>
+        <v>413.220397995626</v>
       </c>
       <c r="K20" t="n">
-        <v>619.3102602575715</v>
+        <v>619.3102602575721</v>
       </c>
       <c r="L20" t="n">
-        <v>768.3091410087887</v>
+        <v>768.3091410087894</v>
       </c>
       <c r="M20" t="n">
-        <v>854.8919566950839</v>
+        <v>854.8919566950848</v>
       </c>
       <c r="N20" t="n">
-        <v>868.7250023164341</v>
+        <v>868.7250023164351</v>
       </c>
       <c r="O20" t="n">
-        <v>820.3123855465966</v>
+        <v>820.3123855465974</v>
       </c>
       <c r="P20" t="n">
-        <v>700.1176424662331</v>
+        <v>700.1176424662337</v>
       </c>
       <c r="Q20" t="n">
-        <v>525.7591923775032</v>
+        <v>525.7591923775036</v>
       </c>
       <c r="R20" t="n">
-        <v>305.8301986844309</v>
+        <v>305.8301986844312</v>
       </c>
       <c r="S20" t="n">
-        <v>110.9443122205077</v>
+        <v>110.9443122205079</v>
       </c>
       <c r="T20" t="n">
-        <v>21.31250583632572</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3894918256781397</v>
+        <v>0.3894918256781401</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.604956237421665</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H21" t="n">
-        <v>25.15839313509871</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I21" t="n">
-        <v>89.68818624456171</v>
+        <v>89.68818624456179</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>246.1112382030708</v>
       </c>
       <c r="K21" t="n">
-        <v>420.643306110322</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L21" t="n">
-        <v>565.6068356735067</v>
+        <v>565.6068356735072</v>
       </c>
       <c r="M21" t="n">
-        <v>660.0364992800419</v>
+        <v>660.0364992800424</v>
       </c>
       <c r="N21" t="n">
-        <v>568.5334645032808</v>
+        <v>240.6649607060642</v>
       </c>
       <c r="O21" t="n">
-        <v>619.7853553132151</v>
+        <v>619.7853553132156</v>
       </c>
       <c r="P21" t="n">
-        <v>497.4323888809844</v>
+        <v>497.4323888809849</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>332.5203786575448</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>161.7357916532506</v>
       </c>
       <c r="S21" t="n">
-        <v>48.38591958544185</v>
+        <v>48.3859195854419</v>
       </c>
       <c r="T21" t="n">
-        <v>10.49980167627416</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1713786998303727</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.183907803302891</v>
+        <v>2.183907803302893</v>
       </c>
       <c r="H22" t="n">
-        <v>19.41692574209299</v>
+        <v>19.41692574209301</v>
       </c>
       <c r="I22" t="n">
-        <v>65.67606375750877</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J22" t="n">
-        <v>154.4022816935144</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K22" t="n">
-        <v>253.7303793291904</v>
+        <v>253.7303793291906</v>
       </c>
       <c r="L22" t="n">
-        <v>324.6875292292316</v>
+        <v>324.687529229232</v>
       </c>
       <c r="M22" t="n">
-        <v>342.3374750213795</v>
+        <v>342.3374750213798</v>
       </c>
       <c r="N22" t="n">
-        <v>334.1974550272508</v>
+        <v>334.1974550272511</v>
       </c>
       <c r="O22" t="n">
-        <v>308.6854411432124</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P22" t="n">
-        <v>264.1337219558332</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q22" t="n">
-        <v>182.872497965663</v>
+        <v>182.8724979656632</v>
       </c>
       <c r="R22" t="n">
-        <v>98.19643631941905</v>
+        <v>98.19643631941913</v>
       </c>
       <c r="S22" t="n">
-        <v>38.05955689937855</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T22" t="n">
-        <v>9.331242432294168</v>
+        <v>9.331242432294177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1191222438165215</v>
+        <v>0.1191222438165216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.161034268709306</v>
+        <v>5.161034268709305</v>
       </c>
       <c r="H23" t="n">
-        <v>52.8554422044192</v>
+        <v>52.85544220441918</v>
       </c>
       <c r="I23" t="n">
         <v>198.9707736444157</v>
       </c>
       <c r="J23" t="n">
-        <v>438.0363322638669</v>
+        <v>438.0363322638668</v>
       </c>
       <c r="K23" t="n">
-        <v>656.5029128583319</v>
+        <v>656.5029128583318</v>
       </c>
       <c r="L23" t="n">
-        <v>814.4499153593446</v>
+        <v>814.4499153593445</v>
       </c>
       <c r="M23" t="n">
-        <v>906.2324585355036</v>
+        <v>906.2324585355035</v>
       </c>
       <c r="N23" t="n">
-        <v>920.8962471514741</v>
+        <v>920.8962471514739</v>
       </c>
       <c r="O23" t="n">
-        <v>869.5762126419958</v>
+        <v>869.5762126419957</v>
       </c>
       <c r="P23" t="n">
-        <v>742.1631791332347</v>
+        <v>742.1631791332346</v>
       </c>
       <c r="Q23" t="n">
-        <v>557.3336393850825</v>
+        <v>557.3336393850824</v>
       </c>
       <c r="R23" t="n">
         <v>324.1968188818112</v>
@@ -32737,7 +32737,7 @@
         <v>117.6070683982134</v>
       </c>
       <c r="T23" t="n">
-        <v>22.592427511275</v>
+        <v>22.59242751127499</v>
       </c>
       <c r="U23" t="n">
         <v>0.4128827414967444</v>
@@ -32783,7 +32783,7 @@
         <v>26.66927941603635</v>
       </c>
       <c r="I24" t="n">
-        <v>95.07440663755013</v>
+        <v>95.0744066375501</v>
       </c>
       <c r="J24" t="n">
         <v>260.8914386470659</v>
@@ -32792,16 +32792,16 @@
         <v>445.9050228248003</v>
       </c>
       <c r="L24" t="n">
-        <v>599.5743312855947</v>
+        <v>532.4143780742459</v>
       </c>
       <c r="M24" t="n">
-        <v>699.6749645160852</v>
+        <v>699.6749645160851</v>
       </c>
       <c r="N24" t="n">
-        <v>718.1932788789916</v>
+        <v>718.1932788789915</v>
       </c>
       <c r="O24" t="n">
-        <v>589.8465865169544</v>
+        <v>657.0065397283031</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32862,10 +32862,10 @@
         <v>20.58300843124475</v>
       </c>
       <c r="I25" t="n">
-        <v>69.62023710690963</v>
+        <v>69.62023710690961</v>
       </c>
       <c r="J25" t="n">
-        <v>163.6749044680883</v>
+        <v>163.6749044680882</v>
       </c>
       <c r="K25" t="n">
         <v>268.9681469849772</v>
@@ -32877,7 +32877,7 @@
         <v>362.8965382208108</v>
       </c>
       <c r="N25" t="n">
-        <v>354.2676696555654</v>
+        <v>354.2676696555653</v>
       </c>
       <c r="O25" t="n">
         <v>327.2235328108316</v>
@@ -32886,7 +32886,7 @@
         <v>279.996261931779</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.8548984255576</v>
+        <v>193.8548984255575</v>
       </c>
       <c r="R25" t="n">
         <v>104.0936193261109</v>
@@ -32895,7 +32895,7 @@
         <v>40.34522204774657</v>
       </c>
       <c r="T25" t="n">
-        <v>9.891629818696345</v>
+        <v>9.891629818696343</v>
       </c>
       <c r="U25" t="n">
         <v>0.1262761253450599</v>
@@ -33023,7 +33023,7 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K27" t="n">
         <v>445.9050228248003</v>
@@ -33032,7 +33032,7 @@
         <v>599.5743312855947</v>
       </c>
       <c r="M27" t="n">
-        <v>699.6749645160852</v>
+        <v>632.5150113047359</v>
       </c>
       <c r="N27" t="n">
         <v>718.1932788789916</v>
@@ -33041,7 +33041,7 @@
         <v>657.0065397283032</v>
       </c>
       <c r="P27" t="n">
-        <v>200.8682661833805</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,16 +33260,16 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K30" t="n">
-        <v>367.9794672158572</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M30" t="n">
-        <v>699.6749645160852</v>
+        <v>632.5150113047359</v>
       </c>
       <c r="N30" t="n">
         <v>718.1932788789916</v>
@@ -33278,10 +33278,10 @@
         <v>657.0065397283032</v>
       </c>
       <c r="P30" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K33" t="n">
-        <v>367.9794672158571</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M33" t="n">
         <v>699.6749645160852</v>
@@ -33512,13 +33512,13 @@
         <v>718.1932788789916</v>
       </c>
       <c r="O33" t="n">
-        <v>657.0065397283032</v>
+        <v>589.8465865169539</v>
       </c>
       <c r="P33" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,16 +33743,16 @@
         <v>599.5743312855947</v>
       </c>
       <c r="M36" t="n">
-        <v>699.6749645160852</v>
+        <v>632.5150113047359</v>
       </c>
       <c r="N36" t="n">
-        <v>257.7020622302967</v>
+        <v>718.1932788789916</v>
       </c>
       <c r="O36" t="n">
         <v>657.0065397283032</v>
       </c>
       <c r="P36" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33971,13 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K39" t="n">
-        <v>367.9794672158572</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M39" t="n">
         <v>699.6749645160852</v>
@@ -33986,13 +33986,13 @@
         <v>718.1932788789916</v>
       </c>
       <c r="O39" t="n">
-        <v>657.0065397283032</v>
+        <v>589.8465865169539</v>
       </c>
       <c r="P39" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,31 +34208,31 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9230839138511</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M42" t="n">
         <v>699.6749645160852</v>
       </c>
       <c r="N42" t="n">
-        <v>718.1932788789916</v>
+        <v>651.0333256676424</v>
       </c>
       <c r="O42" t="n">
         <v>657.0065397283032</v>
       </c>
       <c r="P42" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.2917340267547</v>
@@ -34372,7 +34372,7 @@
         <v>656.5029128583319</v>
       </c>
       <c r="L44" t="n">
-        <v>814.4499153593446</v>
+        <v>814.4499153593458</v>
       </c>
       <c r="M44" t="n">
         <v>906.2324585355036</v>
@@ -34445,10 +34445,10 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L45" t="n">
         <v>599.5743312855947</v>
@@ -34460,10 +34460,10 @@
         <v>718.1932788789916</v>
       </c>
       <c r="O45" t="n">
-        <v>657.0065397283032</v>
+        <v>589.8465865169539</v>
       </c>
       <c r="P45" t="n">
-        <v>508.9318500338218</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.198673398712606</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="M3" t="n">
         <v>13.91167781799599</v>
@@ -34790,7 +34790,7 @@
         <v>13.91167781799599</v>
       </c>
       <c r="O3" t="n">
-        <v>13.91167781799599</v>
+        <v>5.198673398712605</v>
       </c>
       <c r="P3" t="n">
         <v>8.150916426637082</v>
@@ -35021,13 +35021,13 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="N6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>21.75745062690901</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>21.0938401099834</v>
       </c>
       <c r="L9" t="n">
-        <v>36.02852052192134</v>
+        <v>75.15371678069215</v>
       </c>
       <c r="M9" t="n">
-        <v>92.66494928910245</v>
+        <v>32.44591292034823</v>
       </c>
       <c r="N9" t="n">
         <v>92.66494928910245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.1744934689393</v>
+        <v>232.1744934689396</v>
       </c>
       <c r="K11" t="n">
-        <v>399.2204092125909</v>
+        <v>399.2204092125914</v>
       </c>
       <c r="L11" t="n">
-        <v>532.5427260388014</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M11" t="n">
-        <v>624.5457234678112</v>
+        <v>624.5457234678119</v>
       </c>
       <c r="N11" t="n">
-        <v>639.3119387198433</v>
+        <v>639.311938719844</v>
       </c>
       <c r="O11" t="n">
-        <v>590.2141741249098</v>
+        <v>590.2141741249104</v>
       </c>
       <c r="P11" t="n">
-        <v>468.8846467109635</v>
+        <v>468.884646710964</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.4535025030536</v>
+        <v>303.453502503054</v>
       </c>
       <c r="R11" t="n">
-        <v>90.24466087029879</v>
+        <v>90.24466087029901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2736115364038</v>
+        <v>119.273611536404</v>
       </c>
       <c r="K12" t="n">
-        <v>282.8018671359631</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L12" t="n">
-        <v>427.0524558936325</v>
+        <v>427.052455893633</v>
       </c>
       <c r="M12" t="n">
-        <v>517.9024653580236</v>
+        <v>517.9024653580241</v>
       </c>
       <c r="N12" t="n">
-        <v>109.3232486227343</v>
+        <v>546.1639893327518</v>
       </c>
       <c r="O12" t="n">
-        <v>477.1891108687706</v>
+        <v>477.1891108687711</v>
       </c>
       <c r="P12" t="n">
-        <v>363.4579814666541</v>
+        <v>135.2121330174439</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.5386045715229</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>16.05628768928648</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.04310157684159</v>
+        <v>61.04310157684171</v>
       </c>
       <c r="K13" t="n">
-        <v>231.4608875033075</v>
+        <v>231.4608875033077</v>
       </c>
       <c r="L13" t="n">
-        <v>352.2775544895478</v>
+        <v>352.277554489548</v>
       </c>
       <c r="M13" t="n">
-        <v>381.9213519832201</v>
+        <v>381.9213519832203</v>
       </c>
       <c r="N13" t="n">
-        <v>378.3296274064794</v>
+        <v>378.3296274064796</v>
       </c>
       <c r="O13" t="n">
-        <v>333.270569057252</v>
+        <v>333.2705690572523</v>
       </c>
       <c r="P13" t="n">
-        <v>261.4122812207266</v>
+        <v>261.4122812207269</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.71045471396862</v>
+        <v>96.71045471396873</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>232.1744934689393</v>
+        <v>232.1744934689396</v>
       </c>
       <c r="K14" t="n">
-        <v>399.2204092125909</v>
+        <v>399.2204092125914</v>
       </c>
       <c r="L14" t="n">
-        <v>532.5427260388014</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M14" t="n">
-        <v>624.5457234678112</v>
+        <v>624.5457234678119</v>
       </c>
       <c r="N14" t="n">
-        <v>639.3119387198433</v>
+        <v>639.311938719844</v>
       </c>
       <c r="O14" t="n">
-        <v>590.2141741249098</v>
+        <v>590.2141741249104</v>
       </c>
       <c r="P14" t="n">
-        <v>468.8846467109635</v>
+        <v>468.884646710964</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.4535025030536</v>
+        <v>303.453502503054</v>
       </c>
       <c r="R14" t="n">
-        <v>90.24466087029879</v>
+        <v>90.24466087029901</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L15" t="n">
-        <v>427.0524558936325</v>
+        <v>427.052455893633</v>
       </c>
       <c r="M15" t="n">
-        <v>517.9024653580236</v>
+        <v>517.9024653580241</v>
       </c>
       <c r="N15" t="n">
-        <v>546.1639893327514</v>
+        <v>546.1639893327518</v>
       </c>
       <c r="O15" t="n">
-        <v>477.1891108687706</v>
+        <v>477.1891108687711</v>
       </c>
       <c r="P15" t="n">
-        <v>363.4579814666541</v>
+        <v>254.4857445538481</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8296302231589</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.04310157684159</v>
+        <v>61.04310157684171</v>
       </c>
       <c r="K16" t="n">
-        <v>231.4608875033075</v>
+        <v>231.4608875033077</v>
       </c>
       <c r="L16" t="n">
-        <v>352.2775544895478</v>
+        <v>352.277554489548</v>
       </c>
       <c r="M16" t="n">
-        <v>381.9213519832201</v>
+        <v>381.9213519832203</v>
       </c>
       <c r="N16" t="n">
-        <v>378.3296274064794</v>
+        <v>378.3296274064796</v>
       </c>
       <c r="O16" t="n">
-        <v>333.270569057252</v>
+        <v>333.2705690572523</v>
       </c>
       <c r="P16" t="n">
-        <v>261.4122812207266</v>
+        <v>261.4122812207269</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.71045471396862</v>
+        <v>96.71045471396873</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>232.1744934689393</v>
+        <v>232.1744934689396</v>
       </c>
       <c r="K17" t="n">
-        <v>399.2204092125909</v>
+        <v>399.2204092125914</v>
       </c>
       <c r="L17" t="n">
-        <v>532.5427260388014</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M17" t="n">
-        <v>624.5457234678112</v>
+        <v>624.5457234678119</v>
       </c>
       <c r="N17" t="n">
-        <v>639.3119387198433</v>
+        <v>639.311938719844</v>
       </c>
       <c r="O17" t="n">
-        <v>590.2141741249098</v>
+        <v>590.2141741249104</v>
       </c>
       <c r="P17" t="n">
-        <v>468.8846467109635</v>
+        <v>468.884646710964</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.4535025030536</v>
+        <v>303.453502503054</v>
       </c>
       <c r="R17" t="n">
-        <v>90.24466087029879</v>
+        <v>90.24466087029901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2736115364038</v>
+        <v>119.273611536404</v>
       </c>
       <c r="K18" t="n">
-        <v>282.8018671359631</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L18" t="n">
-        <v>427.0524558936325</v>
+        <v>427.052455893633</v>
       </c>
       <c r="M18" t="n">
-        <v>517.9024653580236</v>
+        <v>517.9024653580241</v>
       </c>
       <c r="N18" t="n">
-        <v>546.1639893327514</v>
+        <v>109.3232486227315</v>
       </c>
       <c r="O18" t="n">
-        <v>40.34837015875345</v>
+        <v>477.1891108687711</v>
       </c>
       <c r="P18" t="n">
-        <v>363.4579814666541</v>
+        <v>363.4579814666545</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.5386045715229</v>
+        <v>192.5386045715232</v>
       </c>
       <c r="R18" t="n">
-        <v>16.05628768928648</v>
+        <v>16.05628768928659</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.67250342504308</v>
+        <v>90.67250342504316</v>
       </c>
       <c r="K19" t="n">
-        <v>261.090289351509</v>
+        <v>261.0902893515091</v>
       </c>
       <c r="L19" t="n">
-        <v>381.9069563377493</v>
+        <v>381.9069563377495</v>
       </c>
       <c r="M19" t="n">
-        <v>411.5507538314216</v>
+        <v>411.5507538314217</v>
       </c>
       <c r="N19" t="n">
-        <v>407.9590292546809</v>
+        <v>407.9590292546811</v>
       </c>
       <c r="O19" t="n">
-        <v>362.8999709054535</v>
+        <v>362.8999709054537</v>
       </c>
       <c r="P19" t="n">
-        <v>291.0416830689281</v>
+        <v>291.0416830689283</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.3398565621701</v>
+        <v>126.3398565621702</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>232.1744934689393</v>
+        <v>232.1744934689397</v>
       </c>
       <c r="K20" t="n">
-        <v>399.2204092125909</v>
+        <v>399.2204092125915</v>
       </c>
       <c r="L20" t="n">
-        <v>532.5427260388014</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M20" t="n">
-        <v>624.5457234678112</v>
+        <v>624.5457234678121</v>
       </c>
       <c r="N20" t="n">
-        <v>639.3119387198433</v>
+        <v>639.3119387198442</v>
       </c>
       <c r="O20" t="n">
-        <v>590.2141741249098</v>
+        <v>590.2141741249106</v>
       </c>
       <c r="P20" t="n">
-        <v>468.8846467109635</v>
+        <v>468.8846467109642</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.4535025030536</v>
+        <v>303.4535025030541</v>
       </c>
       <c r="R20" t="n">
-        <v>90.24466087029879</v>
+        <v>90.24466087029907</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.2736115364041</v>
       </c>
       <c r="K21" t="n">
-        <v>282.8018671359631</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L21" t="n">
-        <v>427.0524558936325</v>
+        <v>427.0524558936331</v>
       </c>
       <c r="M21" t="n">
-        <v>517.9024653580236</v>
+        <v>517.9024653580241</v>
       </c>
       <c r="N21" t="n">
-        <v>437.1917524199475</v>
+        <v>109.3232486227308</v>
       </c>
       <c r="O21" t="n">
-        <v>477.1891108687706</v>
+        <v>477.1891108687712</v>
       </c>
       <c r="P21" t="n">
-        <v>363.4579814666541</v>
+        <v>363.4579814666546</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>192.5386045715233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.05628768928662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.67250342504308</v>
+        <v>90.67250342504319</v>
       </c>
       <c r="K22" t="n">
-        <v>261.090289351509</v>
+        <v>261.0902893515092</v>
       </c>
       <c r="L22" t="n">
-        <v>381.9069563377493</v>
+        <v>381.9069563377496</v>
       </c>
       <c r="M22" t="n">
-        <v>411.5507538314216</v>
+        <v>411.5507538314218</v>
       </c>
       <c r="N22" t="n">
-        <v>407.9590292546809</v>
+        <v>407.9590292546812</v>
       </c>
       <c r="O22" t="n">
-        <v>362.8999709054535</v>
+        <v>362.8999709054538</v>
       </c>
       <c r="P22" t="n">
-        <v>291.0416830689281</v>
+        <v>291.0416830689284</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.3398565621701</v>
+        <v>126.3398565621702</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.9904277371806</v>
+        <v>256.9904277371805</v>
       </c>
       <c r="K23" t="n">
-        <v>436.4130618133514</v>
+        <v>436.4130618133512</v>
       </c>
       <c r="L23" t="n">
         <v>578.6835003893573</v>
       </c>
       <c r="M23" t="n">
-        <v>675.8862253082309</v>
+        <v>675.8862253082308</v>
       </c>
       <c r="N23" t="n">
-        <v>691.4831835548832</v>
+        <v>691.483183554883</v>
       </c>
       <c r="O23" t="n">
-        <v>639.478001220309</v>
+        <v>639.4780012203089</v>
       </c>
       <c r="P23" t="n">
-        <v>510.9301833779652</v>
+        <v>510.9301833779651</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.027949510633</v>
+        <v>335.0279495106329</v>
       </c>
       <c r="R23" t="n">
-        <v>108.6112810676791</v>
+        <v>108.611281067679</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>308.0635838504413</v>
       </c>
       <c r="L24" t="n">
-        <v>461.0199515057205</v>
+        <v>393.8599982943717</v>
       </c>
       <c r="M24" t="n">
         <v>557.5409305940668</v>
       </c>
       <c r="N24" t="n">
-        <v>586.8515667956583</v>
+        <v>586.8515667956582</v>
       </c>
       <c r="O24" t="n">
-        <v>447.2503420725099</v>
+        <v>514.4102952838587</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961692</v>
       </c>
       <c r="K25" t="n">
         <v>276.3280570072958</v>
       </c>
       <c r="L25" t="n">
-        <v>401.4060527573689</v>
+        <v>401.4060527573688</v>
       </c>
       <c r="M25" t="n">
-        <v>432.1098170308529</v>
+        <v>432.1098170308528</v>
       </c>
       <c r="N25" t="n">
-        <v>428.0292438829954</v>
+        <v>428.0292438829953</v>
       </c>
       <c r="O25" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P25" t="n">
-        <v>306.904223044874</v>
+        <v>306.9042230448739</v>
       </c>
       <c r="Q25" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K27" t="n">
         <v>308.0635838504413</v>
@@ -36680,7 +36680,7 @@
         <v>461.0199515057205</v>
       </c>
       <c r="M27" t="n">
-        <v>557.5409305940668</v>
+        <v>490.3809773827176</v>
       </c>
       <c r="N27" t="n">
         <v>586.8515667956583</v>
@@ -36689,7 +36689,7 @@
         <v>514.4102952838588</v>
       </c>
       <c r="P27" t="n">
-        <v>66.89385876905023</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961695</v>
       </c>
       <c r="K28" t="n">
         <v>276.3280570072958</v>
@@ -36762,16 +36762,16 @@
         <v>432.1098170308529</v>
       </c>
       <c r="N28" t="n">
-        <v>428.0292438829955</v>
+        <v>428.0292438829954</v>
       </c>
       <c r="O28" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P28" t="n">
         <v>306.904223044874</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K30" t="n">
-        <v>230.1380282414982</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M30" t="n">
-        <v>557.5409305940668</v>
+        <v>490.3809773827176</v>
       </c>
       <c r="N30" t="n">
         <v>586.8515667956583</v>
@@ -36926,10 +36926,10 @@
         <v>514.4102952838588</v>
       </c>
       <c r="P30" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961691</v>
       </c>
       <c r="K31" t="n">
-        <v>276.3280570072958</v>
+        <v>276.3280570072957</v>
       </c>
       <c r="L31" t="n">
         <v>401.4060527573689</v>
@@ -37002,13 +37002,13 @@
         <v>428.0292438829954</v>
       </c>
       <c r="O31" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P31" t="n">
         <v>306.904223044874</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K33" t="n">
-        <v>230.1380282414981</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M33" t="n">
         <v>557.5409305940668</v>
@@ -37160,13 +37160,13 @@
         <v>586.8515667956583</v>
       </c>
       <c r="O33" t="n">
-        <v>514.4102952838588</v>
+        <v>447.2503420725095</v>
       </c>
       <c r="P33" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>461.0199515057205</v>
       </c>
       <c r="M36" t="n">
-        <v>557.5409305940668</v>
+        <v>490.3809773827176</v>
       </c>
       <c r="N36" t="n">
-        <v>126.3603501469634</v>
+        <v>586.8515667956583</v>
       </c>
       <c r="O36" t="n">
         <v>514.4102952838588</v>
       </c>
       <c r="P36" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961691</v>
       </c>
       <c r="K37" t="n">
-        <v>276.3280570072958</v>
+        <v>276.3280570072957</v>
       </c>
       <c r="L37" t="n">
         <v>401.4060527573689</v>
@@ -37473,16 +37473,16 @@
         <v>432.1098170308529</v>
       </c>
       <c r="N37" t="n">
-        <v>428.0292438829955</v>
+        <v>428.0292438829954</v>
       </c>
       <c r="O37" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P37" t="n">
         <v>306.904223044874</v>
       </c>
       <c r="Q37" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K39" t="n">
-        <v>230.1380282414982</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M39" t="n">
         <v>557.5409305940668</v>
@@ -37634,13 +37634,13 @@
         <v>586.8515667956583</v>
       </c>
       <c r="O39" t="n">
-        <v>514.4102952838588</v>
+        <v>447.2503420725095</v>
       </c>
       <c r="P39" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961694</v>
       </c>
       <c r="K40" t="n">
         <v>276.3280570072958</v>
@@ -37713,13 +37713,13 @@
         <v>428.0292438829954</v>
       </c>
       <c r="O40" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P40" t="n">
         <v>306.904223044874</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L42" t="n">
-        <v>204.3687041339769</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M42" t="n">
         <v>557.5409305940668</v>
       </c>
       <c r="N42" t="n">
-        <v>586.8515667956583</v>
+        <v>519.6916135843092</v>
       </c>
       <c r="O42" t="n">
         <v>514.4102952838588</v>
       </c>
       <c r="P42" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>99.94512619961691</v>
+        <v>99.94512619961694</v>
       </c>
       <c r="K43" t="n">
-        <v>276.3280570072957</v>
+        <v>276.3280570072958</v>
       </c>
       <c r="L43" t="n">
         <v>401.4060527573689</v>
@@ -38020,7 +38020,7 @@
         <v>436.4130618133514</v>
       </c>
       <c r="L44" t="n">
-        <v>578.6835003893573</v>
+        <v>578.6835003893585</v>
       </c>
       <c r="M44" t="n">
         <v>675.8862253082309</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L45" t="n">
         <v>461.0199515057205</v>
@@ -38108,10 +38108,10 @@
         <v>586.8515667956583</v>
       </c>
       <c r="O45" t="n">
-        <v>514.4102952838588</v>
+        <v>447.2503420725095</v>
       </c>
       <c r="P45" t="n">
-        <v>374.9574426194916</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99.94512619961691</v>
+        <v>99.94512619961694</v>
       </c>
       <c r="K46" t="n">
-        <v>276.3280570072957</v>
+        <v>276.3280570072958</v>
       </c>
       <c r="L46" t="n">
         <v>401.4060527573689</v>
